--- a/capiq_data/in_process_data/IQ361335.xlsx
+++ b/capiq_data/in_process_data/IQ361335.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA8A314-7466-4194-A433-BB1234B0E0BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8C5000-0C48-4307-BF2A-595529A62303}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"baa4e93e-341e-46e8-aef8-1a25f04e3add"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"e13a950f-1ba8-454a-8819-0f985f9a37ba"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>165.756</v>
+        <v>25.363</v>
       </c>
       <c r="D2">
-        <v>1824.04</v>
+        <v>836.33399999999995</v>
       </c>
       <c r="E2">
-        <v>845.29899999999998</v>
+        <v>485.57299999999998</v>
       </c>
       <c r="F2">
-        <v>745.50199999999995</v>
+        <v>334.31299999999999</v>
       </c>
       <c r="G2">
-        <v>1605.4169999999999</v>
+        <v>980.68899999999996</v>
       </c>
       <c r="H2">
-        <v>8527.6299999999992</v>
+        <v>2864.5360000000001</v>
       </c>
       <c r="I2">
-        <v>212.494</v>
+        <v>112.241</v>
       </c>
       <c r="J2">
-        <v>2641.16</v>
+        <v>760.70500000000004</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,164 +892,164 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1214.268</v>
+        <v>954.99</v>
       </c>
       <c r="O2">
-        <v>4473.5050000000001</v>
+        <v>1832.741</v>
       </c>
       <c r="P2">
-        <v>2990.1559999999999</v>
+        <v>1026.1130000000001</v>
       </c>
       <c r="Q2">
-        <v>80.040000000000006</v>
+        <v>9.6910000000000007</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>42000</v>
+        <v>25000</v>
       </c>
       <c r="T2">
-        <v>4054.125</v>
+        <v>1031.7950000000001</v>
       </c>
       <c r="U2">
-        <v>449.30099999999999</v>
+        <v>171.477</v>
       </c>
       <c r="V2">
-        <v>339.589</v>
+        <v>123.001</v>
       </c>
       <c r="W2">
-        <v>-17.103999999999999</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>-182.87299999999999</v>
+        <v>-155.72200000000001</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-7.5670000000000002</v>
+        <v>-3.16</v>
       </c>
       <c r="AA2">
-        <v>165.756</v>
+        <v>25.363</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>-53.860999999999997</v>
+        <v>35.747999999999998</v>
       </c>
       <c r="D3">
-        <v>1821.577</v>
+        <v>882.553</v>
       </c>
       <c r="E3">
-        <v>940.35799999999995</v>
+        <v>509.27199999999999</v>
       </c>
       <c r="F3">
-        <v>733.57899999999995</v>
+        <v>353.488</v>
       </c>
       <c r="G3">
-        <v>2299.9850000000001</v>
+        <v>952.81399999999996</v>
       </c>
       <c r="H3">
-        <v>9224.7289999999994</v>
+        <v>2903.2350000000001</v>
       </c>
       <c r="I3">
-        <v>1137.326</v>
+        <v>654.98900000000003</v>
       </c>
       <c r="J3">
-        <v>3556.22</v>
+        <v>758.48099999999999</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>265.02999999999997</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-576.89099999999996</v>
+        <v>-2.601</v>
       </c>
       <c r="N3">
-        <v>1766.5640000000001</v>
+        <v>920.01900000000001</v>
       </c>
       <c r="O3">
-        <v>5986.7250000000004</v>
+        <v>1803.019</v>
       </c>
       <c r="P3">
-        <v>4226.5320000000002</v>
+        <v>1023.511</v>
       </c>
       <c r="Q3">
-        <v>544.94100000000003</v>
+        <v>-50.747</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>3238.0039999999999</v>
+        <v>1100.2159999999999</v>
       </c>
       <c r="U3">
-        <v>994.24199999999996</v>
+        <v>120.73</v>
       </c>
       <c r="V3">
-        <v>160.58000000000001</v>
+        <v>40.731000000000002</v>
       </c>
       <c r="W3">
-        <v>-17.135999999999999</v>
+        <v>-0.11799999999999999</v>
       </c>
       <c r="X3">
-        <v>425.11399999999998</v>
+        <v>-1.21</v>
       </c>
       <c r="Y3">
-        <v>41.073999999999998</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>-1.762</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>-53.860999999999997</v>
+        <v>35.747999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>163.143</v>
+        <v>25.495000000000001</v>
       </c>
       <c r="D4">
-        <v>1903.201</v>
+        <v>931.58900000000006</v>
       </c>
       <c r="E4">
-        <v>929.37199999999996</v>
+        <v>520.87300000000005</v>
       </c>
       <c r="F4">
-        <v>798.80700000000002</v>
+        <v>382.19799999999998</v>
       </c>
       <c r="G4">
-        <v>1477.9549999999999</v>
+        <v>956.66</v>
       </c>
       <c r="H4">
-        <v>9431.1910000000007</v>
+        <v>2898.4250000000002</v>
       </c>
       <c r="I4">
-        <v>839.68200000000002</v>
+        <v>602.31200000000001</v>
       </c>
       <c r="J4">
-        <v>3290.0529999999999</v>
+        <v>726.673</v>
       </c>
       <c r="K4">
-        <v>85</v>
+        <v>287.74700000000001</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1058,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1993.357</v>
+        <v>890.05899999999997</v>
       </c>
       <c r="O4">
-        <v>5980.5950000000003</v>
+        <v>1737.5519999999999</v>
       </c>
       <c r="P4">
-        <v>4327.6059999999998</v>
+        <v>1014.42</v>
       </c>
       <c r="Q4">
-        <v>-810.024</v>
+        <v>53.435000000000002</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>3450.596</v>
+        <v>1160.873</v>
       </c>
       <c r="U4">
-        <v>184.21799999999999</v>
+        <v>174.16499999999999</v>
       </c>
       <c r="V4">
-        <v>59.503</v>
+        <v>110.904</v>
       </c>
       <c r="W4">
-        <v>-15.794</v>
+        <v>-2.9000000000000001E-2</v>
       </c>
       <c r="X4">
-        <v>97.686000000000007</v>
+        <v>-27.15</v>
       </c>
       <c r="Y4">
-        <v>42.878</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>208.8</v>
+        <v>-9.9009999999999998</v>
       </c>
       <c r="AA4">
-        <v>163.143</v>
+        <v>25.495000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>171.84800000000001</v>
+        <v>50.122</v>
       </c>
       <c r="D5">
-        <v>1906.405</v>
+        <v>903.18899999999996</v>
       </c>
       <c r="E5">
-        <v>936.25900000000001</v>
+        <v>513.63699999999994</v>
       </c>
       <c r="F5">
-        <v>805.73099999999999</v>
+        <v>367.625</v>
       </c>
       <c r="G5">
-        <v>1396.277</v>
+        <v>988.40499999999997</v>
       </c>
       <c r="H5">
-        <v>9326.4709999999995</v>
+        <v>2933.47</v>
       </c>
       <c r="I5">
-        <v>927.16200000000003</v>
+        <v>608.04700000000003</v>
       </c>
       <c r="J5">
-        <v>3323.4059999999999</v>
+        <v>677.91300000000001</v>
       </c>
       <c r="K5">
-        <v>85</v>
+        <v>280.61799999999999</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,81 +1141,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1764.0719999999999</v>
+        <v>888.66499999999996</v>
       </c>
       <c r="O5">
-        <v>5781.5069999999996</v>
+        <v>1689.548</v>
       </c>
       <c r="P5">
-        <v>4203.7569999999996</v>
+        <v>958.53099999999995</v>
       </c>
       <c r="Q5">
-        <v>-73.393000000000001</v>
+        <v>64.713999999999999</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>3544.9639999999999</v>
+        <v>1243.922</v>
       </c>
       <c r="U5">
-        <v>110.825</v>
+        <v>238.87899999999999</v>
       </c>
       <c r="V5">
-        <v>337.64499999999998</v>
+        <v>149.64500000000001</v>
       </c>
       <c r="W5">
-        <v>-15.9</v>
+        <v>-2.9000000000000001E-2</v>
       </c>
       <c r="X5">
-        <v>-216.946</v>
+        <v>-52.933999999999997</v>
       </c>
       <c r="Y5">
-        <v>44.441000000000003</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>7.3010000000000002</v>
+        <v>-1.3049999999999999</v>
       </c>
       <c r="AA5">
-        <v>171.84800000000001</v>
+        <v>50.122</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>189.43700000000001</v>
+        <v>50.938000000000002</v>
       </c>
       <c r="D6">
-        <v>1760.749</v>
+        <v>910.44</v>
       </c>
       <c r="E6">
-        <v>906.45500000000004</v>
+        <v>508.34</v>
       </c>
       <c r="F6">
-        <v>712.88699999999994</v>
+        <v>372.86599999999999</v>
       </c>
       <c r="G6">
-        <v>1401.26</v>
+        <v>876.51400000000001</v>
       </c>
       <c r="H6">
-        <v>9313.3790000000008</v>
+        <v>2930.5549999999998</v>
       </c>
       <c r="I6">
-        <v>215.34</v>
+        <v>112.962</v>
       </c>
       <c r="J6">
-        <v>3370.5219999999999</v>
+        <v>820.33699999999999</v>
       </c>
       <c r="K6">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,164 +1224,164 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1561.1590000000001</v>
+        <v>658.62300000000005</v>
       </c>
       <c r="O6">
-        <v>5598.38</v>
+        <v>1594.568</v>
       </c>
       <c r="P6">
-        <v>4024.9169999999999</v>
+        <v>821.74099999999999</v>
       </c>
       <c r="Q6">
-        <v>54.061</v>
+        <v>-116.547</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>42000</v>
+        <v>27000</v>
       </c>
       <c r="T6">
-        <v>3714.9989999999998</v>
+        <v>1335.9870000000001</v>
       </c>
       <c r="U6">
-        <v>164.886</v>
+        <v>122.33199999999999</v>
       </c>
       <c r="V6">
-        <v>337.74599999999998</v>
+        <v>164.523</v>
       </c>
       <c r="W6">
-        <v>-15.832000000000001</v>
+        <v>-0.06</v>
       </c>
       <c r="X6">
-        <v>-242.30799999999999</v>
+        <v>-137.03800000000001</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>2.4060000000000001</v>
+        <v>-9.2219999999999995</v>
       </c>
       <c r="AA6">
-        <v>189.43700000000001</v>
+        <v>50.938000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>159.11799999999999</v>
+        <v>66.688999999999993</v>
       </c>
       <c r="D7">
-        <v>1908.6969999999999</v>
+        <v>946.76199999999994</v>
       </c>
       <c r="E7">
-        <v>973.88800000000003</v>
+        <v>548.4</v>
       </c>
       <c r="F7">
-        <v>799.53300000000002</v>
+        <v>389.024</v>
       </c>
       <c r="G7">
-        <v>1518.604</v>
+        <v>949.86699999999996</v>
       </c>
       <c r="H7">
-        <v>9451.4439999999995</v>
+        <v>3005.7159999999999</v>
       </c>
       <c r="I7">
-        <v>971.09199999999998</v>
+        <v>622.28200000000004</v>
       </c>
       <c r="J7">
-        <v>3325.5650000000001</v>
+        <v>820.19</v>
       </c>
       <c r="K7">
-        <v>547.33699999999999</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-467.31200000000001</v>
+        <v>-0.28299999999999997</v>
       </c>
       <c r="N7">
-        <v>1525.4480000000001</v>
+        <v>623.68700000000001</v>
       </c>
       <c r="O7">
-        <v>5555.3869999999997</v>
+        <v>1560.1179999999999</v>
       </c>
       <c r="P7">
-        <v>3919.6129999999998</v>
+        <v>821.59500000000003</v>
       </c>
       <c r="Q7">
-        <v>-19.446999999999999</v>
+        <v>27.094999999999999</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>3896.0569999999998</v>
+        <v>1445.598</v>
       </c>
       <c r="U7">
-        <v>145.43899999999999</v>
+        <v>149.42699999999999</v>
       </c>
       <c r="V7">
-        <v>161.267</v>
+        <v>52.853999999999999</v>
       </c>
       <c r="W7">
-        <v>-26.9</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>-97.471000000000004</v>
+        <v>6.5439999999999996</v>
       </c>
       <c r="Y7">
-        <v>39.692</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>-2.6890000000000001</v>
+        <v>-0.54900000000000004</v>
       </c>
       <c r="AA7">
-        <v>159.11799999999999</v>
+        <v>66.688999999999993</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>177.70500000000001</v>
+        <v>87.150999999999996</v>
       </c>
       <c r="D8">
-        <v>1878.3520000000001</v>
+        <v>1068.81</v>
       </c>
       <c r="E8">
-        <v>941.46900000000005</v>
+        <v>597.66700000000003</v>
       </c>
       <c r="F8">
-        <v>776.428</v>
+        <v>438.55200000000002</v>
       </c>
       <c r="G8">
-        <v>1477.175</v>
+        <v>933.81399999999996</v>
       </c>
       <c r="H8">
-        <v>9392.8469999999998</v>
+        <v>3451.4850000000001</v>
       </c>
       <c r="I8">
-        <v>880.221</v>
+        <v>644.81299999999999</v>
       </c>
       <c r="J8">
-        <v>3337.6089999999999</v>
+        <v>820.81899999999996</v>
       </c>
       <c r="K8">
-        <v>439.67099999999999</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1390,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1324.7180000000001</v>
+        <v>946.58100000000002</v>
       </c>
       <c r="O8">
-        <v>5371.7120000000004</v>
+        <v>1881.491</v>
       </c>
       <c r="P8">
-        <v>3822.6869999999999</v>
+        <v>1122.587</v>
       </c>
       <c r="Q8">
-        <v>28.303000000000001</v>
+        <v>-59.587000000000003</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>4021.1350000000002</v>
+        <v>1569.9939999999999</v>
       </c>
       <c r="U8">
-        <v>173.74199999999999</v>
+        <v>89.84</v>
       </c>
       <c r="V8">
-        <v>250.86699999999999</v>
+        <v>165.09200000000001</v>
       </c>
       <c r="W8">
-        <v>-27.081</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>-175.26599999999999</v>
+        <v>151.13399999999999</v>
       </c>
       <c r="Y8">
-        <v>40.581000000000003</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.124</v>
+        <v>-2.3679999999999999</v>
       </c>
       <c r="AA8">
-        <v>177.70500000000001</v>
+        <v>87.150999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>163.08199999999999</v>
+        <v>86.617000000000004</v>
       </c>
       <c r="D9">
-        <v>1821.748</v>
+        <v>1058.7139999999999</v>
       </c>
       <c r="E9">
-        <v>930.73199999999997</v>
+        <v>576.46100000000001</v>
       </c>
       <c r="F9">
-        <v>760.83100000000002</v>
+        <v>433.63900000000001</v>
       </c>
       <c r="G9">
-        <v>1472.2650000000001</v>
+        <v>930.14499999999998</v>
       </c>
       <c r="H9">
-        <v>9318.7209999999995</v>
+        <v>3465.7370000000001</v>
       </c>
       <c r="I9">
-        <v>915.99099999999999</v>
+        <v>610.40700000000004</v>
       </c>
       <c r="J9">
-        <v>3334.1660000000002</v>
+        <v>796.77800000000002</v>
       </c>
       <c r="K9">
-        <v>152.27099999999999</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1070.6400000000001</v>
+        <v>861.50699999999995</v>
       </c>
       <c r="O9">
-        <v>5121.1400000000003</v>
+        <v>1788.011</v>
       </c>
       <c r="P9">
-        <v>3531.5239999999999</v>
+        <v>1047.8779999999999</v>
       </c>
       <c r="Q9">
-        <v>18.027999999999999</v>
+        <v>24.013999999999999</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>4197.5810000000001</v>
+        <v>1677.7260000000001</v>
       </c>
       <c r="U9">
-        <v>191.77</v>
+        <v>113.854</v>
       </c>
       <c r="V9">
-        <v>394.62099999999998</v>
+        <v>131.98099999999999</v>
       </c>
       <c r="W9">
-        <v>-27.053000000000001</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>-332.14400000000001</v>
+        <v>-76.296999999999997</v>
       </c>
       <c r="Y9">
-        <v>42.709000000000003</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.46700000000000003</v>
+        <v>-1.5329999999999999</v>
       </c>
       <c r="AA9">
-        <v>163.08199999999999</v>
+        <v>86.617000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>81.697000000000003</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1033.7650000000001</v>
       </c>
       <c r="E10">
-        <v>867</v>
+        <v>522.13099999999997</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>414.44799999999998</v>
       </c>
       <c r="G10">
-        <v>1561</v>
+        <v>824.44299999999998</v>
       </c>
       <c r="H10">
-        <v>9284</v>
+        <v>3324.1970000000001</v>
       </c>
       <c r="I10">
-        <v>204</v>
+        <v>111.982</v>
       </c>
       <c r="J10">
-        <v>3357</v>
+        <v>796.50699999999995</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,164 +1556,164 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1048</v>
+        <v>635.97699999999998</v>
       </c>
       <c r="O10">
-        <v>5098</v>
+        <v>1555.3340000000001</v>
       </c>
       <c r="P10">
-        <v>3367</v>
+        <v>822.53899999999999</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>-17.077000000000002</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>41000</v>
+        <v>33400</v>
       </c>
       <c r="T10">
-        <v>4186</v>
+        <v>1768.8630000000001</v>
       </c>
       <c r="U10">
-        <v>296</v>
+        <v>96.777000000000001</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>246.44399999999999</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>-226.095</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>-5.2779999999999996</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>81.697000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>136</v>
+        <v>88.036000000000001</v>
       </c>
       <c r="D11">
-        <v>1787</v>
+        <v>1092.797</v>
       </c>
       <c r="E11">
-        <v>929.96600000000001</v>
+        <v>613.63800000000003</v>
       </c>
       <c r="F11">
-        <v>708</v>
+        <v>444.7</v>
       </c>
       <c r="G11">
-        <v>1457.1659999999999</v>
+        <v>906.92</v>
       </c>
       <c r="H11">
-        <v>9306.1640000000007</v>
+        <v>4186.2950000000001</v>
       </c>
       <c r="I11">
-        <v>935.01800000000003</v>
+        <v>592.29899999999998</v>
       </c>
       <c r="J11">
-        <v>3135.8069999999998</v>
+        <v>1144.355</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>80.623999999999995</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-132</v>
+        <v>-268.98700000000002</v>
       </c>
       <c r="N11">
-        <v>1208.2159999999999</v>
+        <v>672.923</v>
       </c>
       <c r="O11">
-        <v>5078.8109999999997</v>
+        <v>1943.22</v>
       </c>
       <c r="P11">
-        <v>3408.8220000000001</v>
+        <v>1224.979</v>
       </c>
       <c r="Q11">
-        <v>-162</v>
+        <v>-41.18</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>4227.3530000000001</v>
+        <v>2243.0749999999998</v>
       </c>
       <c r="U11">
-        <v>133.60300000000001</v>
+        <v>55.597000000000001</v>
       </c>
       <c r="V11">
-        <v>47</v>
+        <v>58.301000000000002</v>
       </c>
       <c r="W11">
-        <v>-48</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>-60</v>
+        <v>177.01499999999999</v>
       </c>
       <c r="Y11">
-        <v>18.594999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>-2.6280000000000001</v>
       </c>
       <c r="AA11">
-        <v>136</v>
+        <v>88.036000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>165</v>
+        <v>120.41200000000001</v>
       </c>
       <c r="D12">
-        <v>1815</v>
+        <v>1219.9349999999999</v>
       </c>
       <c r="E12">
-        <v>946.75300000000004</v>
+        <v>628.404</v>
       </c>
       <c r="F12">
-        <v>725</v>
+        <v>516.81100000000004</v>
       </c>
       <c r="G12">
-        <v>1469.6990000000001</v>
+        <v>953.13199999999995</v>
       </c>
       <c r="H12">
-        <v>9036.1849999999995</v>
+        <v>4244.0410000000002</v>
       </c>
       <c r="I12">
-        <v>915.92700000000002</v>
+        <v>594.44000000000005</v>
       </c>
       <c r="J12">
-        <v>3131.8409999999999</v>
+        <v>1065.171</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>74.393000000000001</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,81 +1722,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1290.691</v>
+        <v>668.83299999999997</v>
       </c>
       <c r="O12">
-        <v>5097.6189999999997</v>
+        <v>1873.1489999999999</v>
       </c>
       <c r="P12">
-        <v>3527.0590000000002</v>
+        <v>1139.5640000000001</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>32.472000000000001</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>3938.5659999999998</v>
+        <v>2370.8919999999998</v>
       </c>
       <c r="U12">
-        <v>148.34200000000001</v>
+        <v>88.069000000000003</v>
       </c>
       <c r="V12">
-        <v>208</v>
+        <v>169.37700000000001</v>
       </c>
       <c r="W12">
-        <v>-47</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>-341</v>
+        <v>-92.471999999999994</v>
       </c>
       <c r="Y12">
-        <v>20.454000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <v>-8.4860000000000007</v>
       </c>
       <c r="AA12">
-        <v>165</v>
+        <v>120.41200000000001</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>405</v>
+        <v>120.024</v>
       </c>
       <c r="D13">
-        <v>1788</v>
+        <v>1221.221</v>
       </c>
       <c r="E13">
-        <v>920.83299999999997</v>
+        <v>643.84</v>
       </c>
       <c r="F13">
-        <v>708</v>
+        <v>510.041</v>
       </c>
       <c r="G13">
-        <v>1425.6479999999999</v>
+        <v>972.00199999999995</v>
       </c>
       <c r="H13">
-        <v>8927.5390000000007</v>
+        <v>4260.7659999999996</v>
       </c>
       <c r="I13">
-        <v>994.29200000000003</v>
+        <v>617.26</v>
       </c>
       <c r="J13">
-        <v>3128.7359999999999</v>
+        <v>1065.1410000000001</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>56.29</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,78 +1805,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1238.9949999999999</v>
+        <v>673.55</v>
       </c>
       <c r="O13">
-        <v>5055.9440000000004</v>
+        <v>1879.4059999999999</v>
       </c>
       <c r="P13">
-        <v>3393.893</v>
+        <v>1121.431</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>2.9990000000000001</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>3871.5949999999998</v>
+        <v>2381.36</v>
       </c>
       <c r="U13">
-        <v>158.28</v>
+        <v>91.067999999999998</v>
       </c>
       <c r="V13">
-        <v>187</v>
+        <v>172.83500000000001</v>
       </c>
       <c r="W13">
-        <v>-46</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>-629</v>
+        <v>-129.12100000000001</v>
       </c>
       <c r="Y13">
-        <v>20.454000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>-2</v>
+        <v>-0.33600000000000002</v>
       </c>
       <c r="AA13">
-        <v>405</v>
+        <v>120.024</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>143</v>
+        <v>108.245</v>
       </c>
       <c r="D14">
-        <v>1756</v>
+        <v>1204.0050000000001</v>
       </c>
       <c r="E14">
-        <v>852</v>
+        <v>609.18700000000001</v>
       </c>
       <c r="F14">
-        <v>722</v>
+        <v>497.78300000000002</v>
       </c>
       <c r="G14">
-        <v>1383</v>
+        <v>995.78599999999994</v>
       </c>
       <c r="H14">
-        <v>8948</v>
+        <v>4301.4179999999997</v>
       </c>
       <c r="I14">
-        <v>258</v>
+        <v>118.73099999999999</v>
       </c>
       <c r="J14">
-        <v>3154</v>
+        <v>1028.7070000000001</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,164 +1888,164 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1132</v>
+        <v>723.8</v>
       </c>
       <c r="O14">
-        <v>4975</v>
+        <v>1906.7239999999999</v>
       </c>
       <c r="P14">
-        <v>3366</v>
+        <v>1102.6569999999999</v>
       </c>
       <c r="Q14">
-        <v>29</v>
+        <v>63.89</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>41000</v>
+        <v>37200</v>
       </c>
       <c r="T14">
-        <v>3973</v>
+        <v>2394.694</v>
       </c>
       <c r="U14">
-        <v>187</v>
+        <v>154.958</v>
       </c>
       <c r="V14">
-        <v>210</v>
+        <v>262.286</v>
       </c>
       <c r="W14">
-        <v>-44</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>-76</v>
+        <v>-142.99</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>4</v>
+        <v>-2.3919999999999999</v>
       </c>
       <c r="AA14">
-        <v>143</v>
+        <v>108.245</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>104</v>
+        <v>116.149</v>
       </c>
       <c r="D15">
-        <v>1746</v>
+        <v>1255.742</v>
       </c>
       <c r="E15">
-        <v>977</v>
+        <v>650.51099999999997</v>
       </c>
       <c r="F15">
-        <v>653</v>
+        <v>518.46100000000001</v>
       </c>
       <c r="G15">
-        <v>1488</v>
+        <v>1073.6210000000001</v>
       </c>
       <c r="H15">
-        <v>9550</v>
+        <v>4380.0569999999998</v>
       </c>
       <c r="I15">
-        <v>969</v>
+        <v>617.399</v>
       </c>
       <c r="J15">
-        <v>3722</v>
+        <v>1057.749</v>
       </c>
       <c r="K15">
-        <v>180</v>
+        <v>44.597000000000001</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-923</v>
+        <v>-75.358999999999995</v>
       </c>
       <c r="N15">
-        <v>1192</v>
+        <v>661.99599999999998</v>
       </c>
       <c r="O15">
-        <v>5530</v>
+        <v>1875.6020000000001</v>
       </c>
       <c r="P15">
-        <v>3978</v>
+        <v>1102.346</v>
       </c>
       <c r="Q15">
-        <v>-43</v>
+        <v>35.116999999999997</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>4020</v>
+        <v>2504.4549999999999</v>
       </c>
       <c r="U15">
-        <v>144</v>
+        <v>190.07499999999999</v>
       </c>
       <c r="V15">
-        <v>84</v>
+        <v>110.691</v>
       </c>
       <c r="W15">
-        <v>-43</v>
+        <v>-15.429</v>
       </c>
       <c r="X15">
-        <v>509</v>
+        <v>-30.116</v>
       </c>
       <c r="Y15">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>-3.6139999999999999</v>
       </c>
       <c r="AA15">
-        <v>104</v>
+        <v>116.149</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>133</v>
+        <v>126.82899999999999</v>
       </c>
       <c r="D16">
-        <v>1902</v>
+        <v>1297.674</v>
       </c>
       <c r="E16">
-        <v>963</v>
+        <v>677.71</v>
       </c>
       <c r="F16">
-        <v>739</v>
+        <v>550.09699999999998</v>
       </c>
       <c r="G16">
-        <v>1505</v>
+        <v>1044.1199999999999</v>
       </c>
       <c r="H16">
-        <v>9757</v>
+        <v>4346.8509999999997</v>
       </c>
       <c r="I16">
-        <v>1030</v>
+        <v>639.63300000000004</v>
       </c>
       <c r="J16">
-        <v>3729</v>
+        <v>971.71699999999998</v>
       </c>
       <c r="K16">
-        <v>187</v>
+        <v>130.40899999999999</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2054,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1258</v>
+        <v>770.04200000000003</v>
       </c>
       <c r="O16">
-        <v>5638</v>
+        <v>1907.4780000000001</v>
       </c>
       <c r="P16">
-        <v>3984</v>
+        <v>1102.126</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>-52.273000000000003</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>4119</v>
+        <v>2439.373</v>
       </c>
       <c r="U16">
-        <v>144</v>
+        <v>137.80199999999999</v>
       </c>
       <c r="V16">
-        <v>280</v>
+        <v>207.43299999999999</v>
       </c>
       <c r="W16">
-        <v>-48</v>
+        <v>-15.513999999999999</v>
       </c>
       <c r="X16">
-        <v>-75</v>
+        <v>-216.18199999999999</v>
       </c>
       <c r="Y16">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="AA16">
-        <v>133</v>
+        <v>126.82899999999999</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>129</v>
+        <v>130.14400000000001</v>
       </c>
       <c r="D17">
-        <v>1904</v>
+        <v>1289.8969999999999</v>
       </c>
       <c r="E17">
-        <v>953</v>
+        <v>686.04499999999996</v>
       </c>
       <c r="F17">
-        <v>740</v>
+        <v>541.47299999999996</v>
       </c>
       <c r="G17">
-        <v>1563</v>
+        <v>1112.835</v>
       </c>
       <c r="H17">
-        <v>9801</v>
+        <v>4394.9579999999996</v>
       </c>
       <c r="I17">
-        <v>1052</v>
+        <v>649.71</v>
       </c>
       <c r="J17">
-        <v>3726</v>
+        <v>971.81</v>
       </c>
       <c r="K17">
-        <v>103</v>
+        <v>130.18199999999999</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2137,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1190</v>
+        <v>779.89200000000005</v>
       </c>
       <c r="O17">
-        <v>5591</v>
+        <v>1917.2739999999999</v>
       </c>
       <c r="P17">
-        <v>3893</v>
+        <v>1101.992</v>
       </c>
       <c r="Q17">
-        <v>26</v>
+        <v>63.234000000000002</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>4210</v>
+        <v>2477.6840000000002</v>
       </c>
       <c r="U17">
-        <v>170</v>
+        <v>201.036</v>
       </c>
       <c r="V17">
-        <v>271</v>
+        <v>217.083</v>
       </c>
       <c r="W17">
-        <v>-48</v>
+        <v>-15.271000000000001</v>
       </c>
       <c r="X17">
-        <v>-152</v>
+        <v>-113.059</v>
       </c>
       <c r="Y17">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>11</v>
+        <v>-0.30099999999999999</v>
       </c>
       <c r="AA17">
-        <v>129</v>
+        <v>130.14400000000001</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>126.07299999999999</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1283.288</v>
       </c>
       <c r="E18">
-        <v>932</v>
+        <v>649.28099999999995</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>525.85799999999995</v>
       </c>
       <c r="G18">
-        <v>1603</v>
+        <v>931.08</v>
       </c>
       <c r="H18">
-        <v>9857</v>
+        <v>4203.7879999999996</v>
       </c>
       <c r="I18">
-        <v>257</v>
+        <v>128.488</v>
       </c>
       <c r="J18">
-        <v>3252</v>
+        <v>724.02099999999996</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>374.58100000000002</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,164 +2220,164 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1709</v>
+        <v>1043.788</v>
       </c>
       <c r="O18">
-        <v>5527</v>
+        <v>1915.1369999999999</v>
       </c>
       <c r="P18">
-        <v>3770</v>
+        <v>1098.8219999999999</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>-127.73399999999999</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>45000</v>
+        <v>38600</v>
       </c>
       <c r="T18">
-        <v>4330</v>
+        <v>2288.6509999999998</v>
       </c>
       <c r="U18">
-        <v>192</v>
+        <v>73.302000000000007</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>263.57299999999998</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>-15.173</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>-347.37900000000002</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>-1.974</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>126.07299999999999</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>61</v>
+        <v>131.61099999999999</v>
       </c>
       <c r="D19">
-        <v>1839</v>
+        <v>1319.4849999999999</v>
       </c>
       <c r="E19">
-        <v>949</v>
+        <v>702.41899999999998</v>
       </c>
       <c r="F19">
-        <v>696</v>
+        <v>539.40300000000002</v>
       </c>
       <c r="G19">
-        <v>2375</v>
+        <v>1039.2650000000001</v>
       </c>
       <c r="H19">
-        <v>10613</v>
+        <v>4341.9669999999996</v>
       </c>
       <c r="I19">
-        <v>1041</v>
+        <v>702.149</v>
       </c>
       <c r="J19">
-        <v>3675</v>
+        <v>624.08600000000001</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>229.92</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-440</v>
+        <v>-100.402</v>
       </c>
       <c r="N19">
-        <v>2089</v>
+        <v>932.25599999999997</v>
       </c>
       <c r="O19">
-        <v>6342</v>
+        <v>1704.0060000000001</v>
       </c>
       <c r="P19">
-        <v>4736</v>
+        <v>854.19299999999998</v>
       </c>
       <c r="Q19">
-        <v>782</v>
+        <v>12.86</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>4271</v>
+        <v>2637.9609999999998</v>
       </c>
       <c r="U19">
-        <v>974</v>
+        <v>86.162000000000006</v>
       </c>
       <c r="V19">
-        <v>52</v>
+        <v>136.029</v>
       </c>
       <c r="W19">
-        <v>-48</v>
+        <v>-15.019</v>
       </c>
       <c r="X19">
-        <v>785</v>
+        <v>-47.975999999999999</v>
       </c>
       <c r="Y19">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA19">
-        <v>61</v>
+        <v>131.61099999999999</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>1925</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>937</v>
+        <v>693.37800000000004</v>
       </c>
       <c r="F20">
-        <v>754</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>1530</v>
+        <v>1144.5840000000001</v>
       </c>
       <c r="H20">
-        <v>9720</v>
+        <v>4507.6040000000003</v>
       </c>
       <c r="I20">
-        <v>1070</v>
+        <v>710.08100000000002</v>
       </c>
       <c r="J20">
-        <v>3558</v>
+        <v>624.15</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>229.92</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1242</v>
+        <v>940.16700000000003</v>
       </c>
       <c r="O20">
-        <v>5376</v>
+        <v>1727.269</v>
       </c>
       <c r="P20">
-        <v>3748</v>
+        <v>854.23599999999999</v>
       </c>
       <c r="Q20">
-        <v>-824</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>4344</v>
+        <v>2780.335</v>
       </c>
       <c r="U20">
-        <v>150</v>
+        <v>204.107</v>
       </c>
       <c r="V20">
-        <v>285</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>-55</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>-1041</v>
+        <v>0</v>
       </c>
       <c r="Y20">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>342</v>
+        <v>135.24799999999999</v>
       </c>
       <c r="D21">
-        <v>1880</v>
+        <v>1361.116</v>
       </c>
       <c r="E21">
-        <v>914</v>
+        <v>693.79200000000003</v>
       </c>
       <c r="F21">
-        <v>730</v>
+        <v>562.04200000000003</v>
       </c>
       <c r="G21">
-        <v>1648</v>
+        <v>1151.3420000000001</v>
       </c>
       <c r="H21">
-        <v>10074</v>
+        <v>4534.7340000000004</v>
       </c>
       <c r="I21">
-        <v>945</v>
+        <v>686.60699999999997</v>
       </c>
       <c r="J21">
-        <v>3549</v>
+        <v>349.399</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>504.68599999999998</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1133</v>
+        <v>1191.5070000000001</v>
       </c>
       <c r="O21">
-        <v>5384</v>
+        <v>1706.9929999999999</v>
       </c>
       <c r="P21">
-        <v>3731</v>
+        <v>854.29899999999998</v>
       </c>
       <c r="Q21">
-        <v>-27</v>
+        <v>5.9820000000000002</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>4690</v>
+        <v>2827.741</v>
       </c>
       <c r="U21">
-        <v>123</v>
+        <v>210.089</v>
       </c>
       <c r="V21">
-        <v>212</v>
+        <v>177.66499999999999</v>
       </c>
       <c r="W21">
-        <v>-55</v>
+        <v>-18.263999999999999</v>
       </c>
       <c r="X21">
-        <v>-125</v>
+        <v>-99.557000000000002</v>
       </c>
       <c r="Y21">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>-27</v>
+        <v>-16.399999999999999</v>
       </c>
       <c r="AA21">
-        <v>342</v>
+        <v>135.24799999999999</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>1849</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>901</v>
+        <v>732.90700000000004</v>
       </c>
       <c r="F22">
-        <v>735</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>1501</v>
+        <v>1069.4970000000001</v>
       </c>
       <c r="H22">
-        <v>9962</v>
+        <v>5306.1149999999998</v>
       </c>
       <c r="I22">
-        <v>279</v>
+        <v>193.38499999999999</v>
       </c>
       <c r="J22">
-        <v>3498</v>
+        <v>1255.386</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>334.84399999999999</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,164 +2552,164 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1173</v>
+        <v>1101.2919999999999</v>
       </c>
       <c r="O22">
-        <v>5179</v>
+        <v>2543.1309999999999</v>
       </c>
       <c r="P22">
-        <v>3657</v>
+        <v>1592.2249999999999</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>44000</v>
+        <v>41500</v>
       </c>
       <c r="T22">
-        <v>4783</v>
+        <v>2762.9839999999999</v>
       </c>
       <c r="U22">
-        <v>133</v>
+        <v>92.13</v>
       </c>
       <c r="V22">
-        <v>272</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>-54</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>-137</v>
+        <v>0</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>103</v>
+        <v>144.636</v>
       </c>
       <c r="D23">
-        <v>1863</v>
+        <v>1553.105</v>
       </c>
       <c r="E23">
-        <v>952</v>
+        <v>775.72400000000005</v>
       </c>
       <c r="F23">
-        <v>726</v>
+        <v>636.94500000000005</v>
       </c>
       <c r="G23">
-        <v>1493</v>
+        <v>1199.9839999999999</v>
       </c>
       <c r="H23">
-        <v>10097</v>
+        <v>5434.5680000000002</v>
       </c>
       <c r="I23">
-        <v>921</v>
+        <v>835.529</v>
       </c>
       <c r="J23">
-        <v>3727</v>
+        <v>1240.501</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>291.88900000000001</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>-14.336</v>
       </c>
       <c r="M23">
-        <v>-453</v>
+        <v>-60.043999999999997</v>
       </c>
       <c r="N23">
-        <v>1090</v>
+        <v>1127.4179999999999</v>
       </c>
       <c r="O23">
-        <v>5359</v>
+        <v>2569.2719999999999</v>
       </c>
       <c r="P23">
-        <v>3898</v>
+        <v>1532.39</v>
       </c>
       <c r="Q23">
-        <v>-5</v>
+        <v>64.331000000000003</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>4738</v>
+        <v>2865.2959999999998</v>
       </c>
       <c r="U23">
-        <v>128</v>
+        <v>156.46100000000001</v>
       </c>
       <c r="V23">
-        <v>153</v>
+        <v>240.65899999999999</v>
       </c>
       <c r="W23">
-        <v>-55</v>
+        <v>-17.876999999999999</v>
       </c>
       <c r="X23">
-        <v>32</v>
+        <v>-148.33699999999999</v>
       </c>
       <c r="Y23">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>-8</v>
+        <v>14.192</v>
       </c>
       <c r="AA23">
-        <v>103</v>
+        <v>144.636</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>195</v>
+        <v>131.977</v>
       </c>
       <c r="D24">
-        <v>1906</v>
+        <v>1583.0820000000001</v>
       </c>
       <c r="E24">
-        <v>975</v>
+        <v>800.279</v>
       </c>
       <c r="F24">
-        <v>761</v>
+        <v>656.38499999999999</v>
       </c>
       <c r="G24">
-        <v>1510</v>
+        <v>1219.3109999999999</v>
       </c>
       <c r="H24">
-        <v>10109</v>
+        <v>5447.5940000000001</v>
       </c>
       <c r="I24">
-        <v>983</v>
+        <v>814.57500000000005</v>
       </c>
       <c r="J24">
-        <v>3822</v>
+        <v>1240.6130000000001</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>291.935</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1111</v>
+        <v>1106.51</v>
       </c>
       <c r="O24">
-        <v>5466</v>
+        <v>2544.5940000000001</v>
       </c>
       <c r="P24">
-        <v>3842</v>
+        <v>1532.548</v>
       </c>
       <c r="Q24">
-        <v>155</v>
+        <v>-5.782</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>4643</v>
+        <v>2903</v>
       </c>
       <c r="U24">
-        <v>283</v>
+        <v>150.679</v>
       </c>
       <c r="V24">
-        <v>311</v>
+        <v>170.452</v>
       </c>
       <c r="W24">
-        <v>-56</v>
+        <v>-19.809000000000001</v>
       </c>
       <c r="X24">
-        <v>-373</v>
+        <v>-128.53100000000001</v>
       </c>
       <c r="Y24">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>-0.7</v>
       </c>
       <c r="AA24">
-        <v>195</v>
+        <v>131.977</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>192</v>
+        <v>160.52199999999999</v>
       </c>
       <c r="D25">
-        <v>1885</v>
+        <v>1583.202</v>
       </c>
       <c r="E25">
-        <v>966</v>
+        <v>857.03</v>
       </c>
       <c r="F25">
-        <v>736</v>
+        <v>649.46699999999998</v>
       </c>
       <c r="G25">
-        <v>1642</v>
+        <v>1241.9469999999999</v>
       </c>
       <c r="H25">
-        <v>10173</v>
+        <v>5704.81</v>
       </c>
       <c r="I25">
-        <v>994</v>
+        <v>860.70600000000002</v>
       </c>
       <c r="J25">
-        <v>3807</v>
+        <v>1239.002</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>316.91300000000001</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1046</v>
+        <v>1177.6189999999999</v>
       </c>
       <c r="O25">
-        <v>5403</v>
+        <v>2636.259</v>
       </c>
       <c r="P25">
-        <v>3827</v>
+        <v>1555.915</v>
       </c>
       <c r="Q25">
-        <v>123</v>
+        <v>-45.564</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>4770</v>
+        <v>3068.5509999999999</v>
       </c>
       <c r="U25">
-        <v>406</v>
+        <v>105.11499999999999</v>
       </c>
       <c r="V25">
-        <v>301</v>
+        <v>234.69499999999999</v>
       </c>
       <c r="W25">
-        <v>-57</v>
+        <v>-19.709</v>
       </c>
       <c r="X25">
-        <v>-106</v>
+        <v>-4.6920000000000002</v>
       </c>
       <c r="Y25">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>-2</v>
+        <v>0.152</v>
       </c>
       <c r="AA25">
-        <v>192</v>
+        <v>160.52199999999999</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>1861</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>926</v>
+        <v>774.41399999999999</v>
       </c>
       <c r="F26">
-        <v>716</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>1531</v>
+        <v>1191.018</v>
       </c>
       <c r="H26">
-        <v>10100</v>
+        <v>5661.482</v>
       </c>
       <c r="I26">
-        <v>231</v>
+        <v>215.721</v>
       </c>
       <c r="J26">
-        <v>3816</v>
+        <v>1239.105</v>
       </c>
       <c r="K26">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,164 +2884,164 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>981</v>
+        <v>1150.8699999999999</v>
       </c>
       <c r="O26">
-        <v>5363</v>
+        <v>2642.3110000000001</v>
       </c>
       <c r="P26">
-        <v>3852</v>
+        <v>1555.979</v>
       </c>
       <c r="Q26">
-        <v>-47</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>43000</v>
+        <v>41000</v>
       </c>
       <c r="T26">
-        <v>4737</v>
+        <v>3019.1709999999998</v>
       </c>
       <c r="U26">
-        <v>359</v>
+        <v>149.63999999999999</v>
       </c>
       <c r="V26">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="W26">
-        <v>-55</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>-244</v>
+        <v>0</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>164</v>
+        <v>105.893</v>
       </c>
       <c r="D27">
-        <v>1817</v>
+        <v>1526.2080000000001</v>
       </c>
       <c r="E27">
-        <v>960</v>
+        <v>810.57600000000002</v>
       </c>
       <c r="F27">
-        <v>662</v>
+        <v>598.32299999999998</v>
       </c>
       <c r="G27">
-        <v>1558</v>
+        <v>1246.9490000000001</v>
       </c>
       <c r="H27">
-        <v>10109</v>
+        <v>6186.5420000000004</v>
       </c>
       <c r="I27">
-        <v>954</v>
+        <v>800.69799999999998</v>
       </c>
       <c r="J27">
-        <v>3806</v>
+        <v>1238.2650000000001</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>767.04100000000005</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>-10.157999999999999</v>
       </c>
       <c r="M27">
-        <v>-2</v>
+        <v>-128.34299999999999</v>
       </c>
       <c r="N27">
-        <v>985</v>
+        <v>1567.739</v>
       </c>
       <c r="O27">
-        <v>5368</v>
+        <v>3157.31</v>
       </c>
       <c r="P27">
-        <v>3819</v>
+        <v>2005.306</v>
       </c>
       <c r="Q27">
-        <v>-17</v>
+        <v>8.7569999999999997</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>4741</v>
+        <v>3029.232</v>
       </c>
       <c r="U27">
-        <v>367</v>
+        <v>158.39699999999999</v>
       </c>
       <c r="V27">
-        <v>196</v>
+        <v>151.553</v>
       </c>
       <c r="W27">
-        <v>-62</v>
+        <v>-19.401</v>
       </c>
       <c r="X27">
-        <v>-166</v>
+        <v>203.15100000000001</v>
       </c>
       <c r="Y27">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>-4</v>
+        <v>-1.119</v>
       </c>
       <c r="AA27">
-        <v>164</v>
+        <v>105.893</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>193</v>
+        <v>141.33199999999999</v>
       </c>
       <c r="D28">
-        <v>1864</v>
+        <v>1641.1559999999999</v>
       </c>
       <c r="E28">
-        <v>947</v>
+        <v>973.06799999999998</v>
       </c>
       <c r="F28">
-        <v>705</v>
+        <v>672.41399999999999</v>
       </c>
       <c r="G28">
-        <v>1500</v>
+        <v>1415.201</v>
       </c>
       <c r="H28">
-        <v>10171</v>
+        <v>8494.0329999999994</v>
       </c>
       <c r="I28">
-        <v>889</v>
+        <v>792.44899999999996</v>
       </c>
       <c r="J28">
-        <v>3809</v>
+        <v>3530.7339999999999</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>917</v>
+        <v>1159.5519999999999</v>
       </c>
       <c r="O28">
-        <v>5358</v>
+        <v>5304.7060000000001</v>
       </c>
       <c r="P28">
-        <v>3814</v>
+        <v>3912.1460000000002</v>
       </c>
       <c r="Q28">
-        <v>-53</v>
+        <v>-36.098999999999997</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>4813</v>
+        <v>3189.3270000000002</v>
       </c>
       <c r="U28">
-        <v>314</v>
+        <v>122.298</v>
       </c>
       <c r="V28">
-        <v>294</v>
+        <v>128.79300000000001</v>
       </c>
       <c r="W28">
-        <v>-62</v>
+        <v>-19.260999999999999</v>
       </c>
       <c r="X28">
-        <v>-177</v>
+        <v>1064.42</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>14.308999999999999</v>
       </c>
       <c r="Z28">
-        <v>6</v>
+        <v>-5.3689999999999998</v>
       </c>
       <c r="AA28">
-        <v>193</v>
+        <v>141.33199999999999</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>161</v>
+        <v>97.965000000000003</v>
       </c>
       <c r="D29">
-        <v>1856</v>
+        <v>1767.07</v>
       </c>
       <c r="E29">
-        <v>960</v>
+        <v>962.86400000000003</v>
       </c>
       <c r="F29">
-        <v>681</v>
+        <v>740.47199999999998</v>
       </c>
       <c r="G29">
-        <v>1544</v>
+        <v>1449.2460000000001</v>
       </c>
       <c r="H29">
-        <v>10439</v>
+        <v>8582.6309999999994</v>
       </c>
       <c r="I29">
-        <v>1023</v>
+        <v>910.59299999999996</v>
       </c>
       <c r="J29">
-        <v>3835</v>
+        <v>3454.1129999999998</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1052</v>
+        <v>1202.9749999999999</v>
       </c>
       <c r="O29">
-        <v>5533</v>
+        <v>5254.5609999999997</v>
       </c>
       <c r="P29">
-        <v>3840</v>
+        <v>3764.1370000000002</v>
       </c>
       <c r="Q29">
-        <v>36</v>
+        <v>42.325000000000003</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>4906</v>
+        <v>3328.07</v>
       </c>
       <c r="U29">
-        <v>350</v>
+        <v>164.62299999999999</v>
       </c>
       <c r="V29">
-        <v>362</v>
+        <v>291.202</v>
       </c>
       <c r="W29">
-        <v>-62</v>
+        <v>-19.305</v>
       </c>
       <c r="X29">
-        <v>-79</v>
+        <v>-174.04900000000001</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>17.641999999999999</v>
       </c>
       <c r="Z29">
-        <v>3</v>
+        <v>2.7250000000000001</v>
       </c>
       <c r="AA29">
-        <v>161</v>
+        <v>97.965000000000003</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>254</v>
+        <v>-5.2510000000000003</v>
       </c>
       <c r="D30">
-        <v>1865</v>
+        <v>1770.473</v>
       </c>
       <c r="E30">
-        <v>924</v>
+        <v>881.96699999999998</v>
       </c>
       <c r="F30">
-        <v>687</v>
+        <v>727.75</v>
       </c>
       <c r="G30">
-        <v>1306</v>
+        <v>1374.357</v>
       </c>
       <c r="H30">
-        <v>10503</v>
+        <v>8565.6929999999993</v>
       </c>
       <c r="I30">
-        <v>224</v>
+        <v>205.06700000000001</v>
       </c>
       <c r="J30">
-        <v>3837</v>
+        <v>3377.212</v>
       </c>
       <c r="K30">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,161 +3216,161 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1057</v>
+        <v>1288.297</v>
       </c>
       <c r="O30">
-        <v>5468</v>
+        <v>5241.451</v>
       </c>
       <c r="P30">
-        <v>3944</v>
+        <v>3540.7930000000001</v>
       </c>
       <c r="Q30">
-        <v>-213</v>
+        <v>2.9710000000000001</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>45000</v>
+        <v>43500</v>
       </c>
       <c r="T30">
-        <v>5035</v>
+        <v>3324.2420000000002</v>
       </c>
       <c r="U30">
-        <v>137</v>
+        <v>167.59399999999999</v>
       </c>
       <c r="V30">
-        <v>323</v>
+        <v>355.37599999999998</v>
       </c>
       <c r="W30">
-        <v>-61</v>
+        <v>-19.36</v>
       </c>
       <c r="X30">
-        <v>-170</v>
+        <v>-243.29900000000001</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-3</v>
+        <v>-0.503</v>
       </c>
       <c r="AA30">
-        <v>254</v>
+        <v>-5.2510000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>177</v>
+        <v>139.607</v>
       </c>
       <c r="D31">
-        <v>1884</v>
+        <v>1784.6369999999999</v>
       </c>
       <c r="E31">
-        <v>1026</v>
+        <v>947.73800000000006</v>
       </c>
       <c r="F31">
-        <v>670</v>
+        <v>726.01</v>
       </c>
       <c r="G31">
-        <v>1371</v>
+        <v>1464.635</v>
       </c>
       <c r="H31">
-        <v>10695</v>
+        <v>8646.3340000000007</v>
       </c>
       <c r="I31">
-        <v>948</v>
+        <v>902.93700000000001</v>
       </c>
       <c r="J31">
-        <v>3795</v>
+        <v>3359.4749999999999</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>-4.6879999999999997</v>
       </c>
       <c r="M31">
-        <v>-832</v>
+        <v>-135.506</v>
       </c>
       <c r="N31">
-        <v>1117</v>
+        <v>1192.729</v>
       </c>
       <c r="O31">
-        <v>5552</v>
+        <v>5144.3069999999998</v>
       </c>
       <c r="P31">
-        <v>3973</v>
+        <v>3427.5070000000001</v>
       </c>
       <c r="Q31">
-        <v>-13</v>
+        <v>2.4279999999999999</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>5143</v>
+        <v>3502.027</v>
       </c>
       <c r="U31">
-        <v>124</v>
+        <v>170.02199999999999</v>
       </c>
       <c r="V31">
-        <v>180</v>
+        <v>157.90700000000001</v>
       </c>
       <c r="W31">
-        <v>-61</v>
+        <v>-19.408000000000001</v>
       </c>
       <c r="X31">
-        <v>11</v>
+        <v>-138.25899999999999</v>
       </c>
       <c r="Y31">
-        <v>37</v>
+        <v>19.239999999999998</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>6.8860000000000001</v>
       </c>
       <c r="AA31">
-        <v>177</v>
+        <v>139.607</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>219</v>
+        <v>161.328</v>
       </c>
       <c r="D32">
-        <v>1919</v>
+        <v>1837.9010000000001</v>
       </c>
       <c r="E32">
-        <v>1055</v>
+        <v>922.51300000000003</v>
       </c>
       <c r="F32">
-        <v>693</v>
+        <v>754.42</v>
       </c>
       <c r="G32">
-        <v>1415</v>
+        <v>1417.088</v>
       </c>
       <c r="H32">
-        <v>10747</v>
+        <v>8567.0329999999994</v>
       </c>
       <c r="I32">
-        <v>934</v>
+        <v>839.23599999999999</v>
       </c>
       <c r="J32">
-        <v>3493</v>
+        <v>3188.6370000000002</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>1262</v>
+        <v>1130.5999999999999</v>
       </c>
       <c r="O32">
-        <v>5408</v>
+        <v>4899.3789999999999</v>
       </c>
       <c r="P32">
-        <v>3834</v>
+        <v>3259.6619999999998</v>
       </c>
       <c r="Q32">
-        <v>8</v>
+        <v>-26.623999999999999</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>5339</v>
+        <v>3667.654</v>
       </c>
       <c r="U32">
-        <v>132</v>
+        <v>143.398</v>
       </c>
       <c r="V32">
-        <v>323</v>
+        <v>213.303</v>
       </c>
       <c r="W32">
-        <v>-68</v>
+        <v>-19.481000000000002</v>
       </c>
       <c r="X32">
-        <v>-189</v>
+        <v>-188.178</v>
       </c>
       <c r="Y32">
-        <v>36</v>
+        <v>20.661000000000001</v>
       </c>
       <c r="Z32">
-        <v>-13</v>
+        <v>-0.92100000000000004</v>
       </c>
       <c r="AA32">
-        <v>219</v>
+        <v>161.328</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>213</v>
+        <v>110.742</v>
       </c>
       <c r="D33">
-        <v>1889</v>
+        <v>1826.6030000000001</v>
       </c>
       <c r="E33">
-        <v>1097</v>
+        <v>888.11500000000001</v>
       </c>
       <c r="F33">
-        <v>678</v>
+        <v>753.48</v>
       </c>
       <c r="G33">
-        <v>1603</v>
+        <v>1551.567</v>
       </c>
       <c r="H33">
-        <v>10986</v>
+        <v>8568.7559999999994</v>
       </c>
       <c r="I33">
-        <v>1067</v>
+        <v>1190.914</v>
       </c>
       <c r="J33">
-        <v>3489</v>
+        <v>3060.3069999999998</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>4.5830000000000002</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1389</v>
+        <v>1240.8330000000001</v>
       </c>
       <c r="O33">
-        <v>5544</v>
+        <v>4836.7719999999999</v>
       </c>
       <c r="P33">
-        <v>3829</v>
+        <v>3128.34</v>
       </c>
       <c r="Q33">
-        <v>131</v>
+        <v>143.28100000000001</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>5442</v>
+        <v>3731.9839999999999</v>
       </c>
       <c r="U33">
-        <v>263</v>
+        <v>286.67899999999997</v>
       </c>
       <c r="V33">
-        <v>402</v>
+        <v>328.91699999999997</v>
       </c>
       <c r="W33">
-        <v>-69</v>
+        <v>-19.513000000000002</v>
       </c>
       <c r="X33">
-        <v>-146</v>
+        <v>-138.12200000000001</v>
       </c>
       <c r="Y33">
-        <v>36</v>
+        <v>18.114000000000001</v>
       </c>
       <c r="Z33">
-        <v>10</v>
+        <v>-1.62</v>
       </c>
       <c r="AA33">
-        <v>213</v>
+        <v>110.742</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>127</v>
+        <v>169.81299999999999</v>
       </c>
       <c r="D34">
-        <v>1839</v>
+        <v>1800.306</v>
       </c>
       <c r="E34">
-        <v>1012</v>
+        <v>832.87300000000005</v>
       </c>
       <c r="F34">
-        <v>624</v>
+        <v>767.08100000000002</v>
       </c>
       <c r="G34">
-        <v>1390</v>
+        <v>1496.819</v>
       </c>
       <c r="H34">
-        <v>11003</v>
+        <v>8403.83</v>
       </c>
       <c r="I34">
-        <v>222</v>
+        <v>191.21899999999999</v>
       </c>
       <c r="J34">
-        <v>3522</v>
+        <v>3078.0889999999999</v>
       </c>
       <c r="K34">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1485</v>
+        <v>1224.761</v>
       </c>
       <c r="O34">
-        <v>5659</v>
+        <v>4778.6959999999999</v>
       </c>
       <c r="P34">
-        <v>4084</v>
+        <v>3083.2310000000002</v>
       </c>
       <c r="Q34">
-        <v>-128</v>
+        <v>-32.732999999999997</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>46000</v>
+        <v>42800</v>
       </c>
       <c r="T34">
-        <v>5344</v>
+        <v>3625.134</v>
       </c>
       <c r="U34">
-        <v>135</v>
+        <v>253.946</v>
       </c>
       <c r="V34">
-        <v>295</v>
+        <v>362.92200000000003</v>
       </c>
       <c r="W34">
-        <v>-68</v>
+        <v>-19.562000000000001</v>
       </c>
       <c r="X34">
-        <v>-77</v>
+        <v>-313.255</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>3</v>
+        <v>1.387</v>
       </c>
       <c r="AA34">
-        <v>127</v>
+        <v>169.81299999999999</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>164</v>
+        <v>167.102</v>
       </c>
       <c r="D35">
-        <v>1891</v>
+        <v>1808.0060000000001</v>
       </c>
       <c r="E35">
-        <v>1079</v>
+        <v>888.25300000000004</v>
       </c>
       <c r="F35">
-        <v>658</v>
+        <v>754.51700000000005</v>
       </c>
       <c r="G35">
-        <v>1778</v>
+        <v>1484.557</v>
       </c>
       <c r="H35">
-        <v>11937</v>
+        <v>8346.6329999999998</v>
       </c>
       <c r="I35">
-        <v>1002</v>
+        <v>942.33600000000001</v>
       </c>
       <c r="J35">
-        <v>3176</v>
+        <v>3062.587</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,84 +3628,84 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-802</v>
+        <v>-50.597000000000001</v>
       </c>
       <c r="N35">
-        <v>2282</v>
+        <v>1266.3499999999999</v>
       </c>
       <c r="O35">
-        <v>6519</v>
+        <v>4814.3019999999997</v>
       </c>
       <c r="P35">
-        <v>4854</v>
+        <v>3082.1849999999999</v>
       </c>
       <c r="Q35">
-        <v>329</v>
+        <v>-49.725000000000001</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>5418</v>
+        <v>3532.3310000000001</v>
       </c>
       <c r="U35">
-        <v>464</v>
+        <v>204.221</v>
       </c>
       <c r="V35">
-        <v>275</v>
+        <v>272.76299999999998</v>
       </c>
       <c r="W35">
-        <v>-72</v>
+        <v>-19.041</v>
       </c>
       <c r="X35">
-        <v>164</v>
+        <v>-281.12299999999999</v>
       </c>
       <c r="Y35">
-        <v>425</v>
+        <v>14.584</v>
       </c>
       <c r="Z35">
-        <v>-7</v>
+        <v>-0.32600000000000001</v>
       </c>
       <c r="AA35">
-        <v>164</v>
+        <v>167.102</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>226</v>
+        <v>188.2</v>
       </c>
       <c r="D36">
-        <v>1953</v>
+        <v>1901.818</v>
       </c>
       <c r="E36">
-        <v>1088</v>
+        <v>896.53499999999997</v>
       </c>
       <c r="F36">
-        <v>699</v>
+        <v>801.60599999999999</v>
       </c>
       <c r="G36">
-        <v>1566</v>
+        <v>1339.098</v>
       </c>
       <c r="H36">
-        <v>11760</v>
+        <v>8211.4349999999995</v>
       </c>
       <c r="I36">
-        <v>933</v>
+        <v>811.90700000000004</v>
       </c>
       <c r="J36">
-        <v>3175</v>
+        <v>2862.1219999999998</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1904</v>
+        <v>1023.876</v>
       </c>
       <c r="O36">
-        <v>6175</v>
+        <v>4445.7929999999997</v>
       </c>
       <c r="P36">
-        <v>4572</v>
+        <v>3082.7359999999999</v>
       </c>
       <c r="Q36">
-        <v>-191</v>
+        <v>-84.927000000000007</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>5585</v>
+        <v>3765.6419999999998</v>
       </c>
       <c r="U36">
-        <v>273</v>
+        <v>119.294</v>
       </c>
       <c r="V36">
-        <v>321</v>
+        <v>-9.2070000000000007</v>
       </c>
       <c r="W36">
-        <v>-71</v>
+        <v>-18.574999999999999</v>
       </c>
       <c r="X36">
-        <v>-420</v>
+        <v>-23.009</v>
       </c>
       <c r="Y36">
-        <v>444</v>
+        <v>15.645</v>
       </c>
       <c r="Z36">
-        <v>-7</v>
+        <v>-5.702</v>
       </c>
       <c r="AA36">
-        <v>226</v>
+        <v>188.2</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>215</v>
+        <v>192.21899999999999</v>
       </c>
       <c r="D37">
-        <v>1956</v>
+        <v>1897.146</v>
       </c>
       <c r="E37">
-        <v>1117</v>
+        <v>888.28800000000001</v>
       </c>
       <c r="F37">
-        <v>699</v>
+        <v>799.61099999999999</v>
       </c>
       <c r="G37">
-        <v>1779</v>
+        <v>1470.682</v>
       </c>
       <c r="H37">
-        <v>12019</v>
+        <v>8365.7250000000004</v>
       </c>
       <c r="I37">
-        <v>1047</v>
+        <v>886.97299999999996</v>
       </c>
       <c r="J37">
-        <v>3174</v>
+        <v>2857.8150000000001</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>2011</v>
+        <v>990.84500000000003</v>
       </c>
       <c r="O37">
-        <v>6289</v>
+        <v>4427.6180000000004</v>
       </c>
       <c r="P37">
-        <v>4562</v>
+        <v>2981.6060000000002</v>
       </c>
       <c r="Q37">
-        <v>161</v>
+        <v>127.739</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>5730</v>
+        <v>3938.107</v>
       </c>
       <c r="U37">
-        <v>434</v>
+        <v>247.03299999999999</v>
       </c>
       <c r="V37">
-        <v>299</v>
+        <v>373.54300000000001</v>
       </c>
       <c r="W37">
-        <v>-72</v>
+        <v>-18.61</v>
       </c>
       <c r="X37">
-        <v>-29</v>
+        <v>-199.68700000000001</v>
       </c>
       <c r="Y37">
-        <v>436</v>
+        <v>19.919</v>
       </c>
       <c r="Z37">
-        <v>-13</v>
+        <v>-0.52900000000000003</v>
       </c>
       <c r="AA37">
-        <v>215</v>
+        <v>192.21899999999999</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>253</v>
+        <v>181.59</v>
       </c>
       <c r="D38">
-        <v>1926</v>
+        <v>1848.2729999999999</v>
       </c>
       <c r="E38">
-        <v>1063</v>
+        <v>827.34299999999996</v>
       </c>
       <c r="F38">
-        <v>668</v>
+        <v>778.03399999999999</v>
       </c>
       <c r="G38">
-        <v>2490</v>
+        <v>1679.425</v>
       </c>
       <c r="H38">
-        <v>12843</v>
+        <v>8563.643</v>
       </c>
       <c r="I38">
-        <v>263</v>
+        <v>207.327</v>
       </c>
       <c r="J38">
-        <v>3964</v>
+        <v>2951.19</v>
       </c>
       <c r="K38">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>1990</v>
+        <v>1059.212</v>
       </c>
       <c r="O38">
-        <v>7080</v>
+        <v>4552.1790000000001</v>
       </c>
       <c r="P38">
-        <v>5444</v>
+        <v>3121.6970000000001</v>
       </c>
       <c r="Q38">
-        <v>758</v>
+        <v>287.22300000000001</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>47000</v>
+        <v>43000</v>
       </c>
       <c r="T38">
-        <v>5763</v>
+        <v>4011.4639999999999</v>
       </c>
       <c r="U38">
-        <v>1192</v>
+        <v>534.25599999999997</v>
       </c>
       <c r="V38">
-        <v>348</v>
+        <v>360.31900000000002</v>
       </c>
       <c r="W38">
-        <v>-71</v>
+        <v>-18.521999999999998</v>
       </c>
       <c r="X38">
-        <v>510</v>
+        <v>-17.385000000000002</v>
       </c>
       <c r="Y38">
-        <v>443</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-17</v>
+        <v>-4.1239999999999997</v>
       </c>
       <c r="AA38">
-        <v>253</v>
+        <v>181.59</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>99</v>
+        <v>162.44800000000001</v>
       </c>
       <c r="D39">
-        <v>1822</v>
+        <v>1805.5029999999999</v>
       </c>
       <c r="E39">
-        <v>972</v>
+        <v>865.16</v>
       </c>
       <c r="F39">
-        <v>560</v>
+        <v>743.63</v>
       </c>
       <c r="G39">
-        <v>1560</v>
+        <v>1645.248</v>
       </c>
       <c r="H39">
-        <v>12049</v>
+        <v>8516.2090000000007</v>
       </c>
       <c r="I39">
-        <v>975</v>
+        <v>906.09400000000005</v>
       </c>
       <c r="J39">
-        <v>4003</v>
+        <v>2924.1750000000002</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,81 +3960,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-801</v>
+        <v>-0.69899999999999995</v>
       </c>
       <c r="N39">
-        <v>1129</v>
+        <v>1076.498</v>
       </c>
       <c r="O39">
-        <v>6270</v>
+        <v>4586.9939999999997</v>
       </c>
       <c r="P39">
-        <v>4590</v>
+        <v>3115.1930000000002</v>
       </c>
       <c r="Q39">
-        <v>-850</v>
+        <v>-71.016999999999996</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>5779</v>
+        <v>3929.2150000000001</v>
       </c>
       <c r="U39">
-        <v>342</v>
+        <v>463.23899999999998</v>
       </c>
       <c r="V39">
-        <v>247</v>
+        <v>239.215</v>
       </c>
       <c r="W39">
-        <v>-71</v>
+        <v>-18.372</v>
       </c>
       <c r="X39">
-        <v>-891</v>
+        <v>-267.63799999999998</v>
       </c>
       <c r="Y39">
-        <v>439</v>
+        <v>20.614000000000001</v>
       </c>
       <c r="Z39">
-        <v>-15</v>
+        <v>-2.831</v>
       </c>
       <c r="AA39">
-        <v>99</v>
+        <v>162.44800000000001</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>185</v>
+        <v>194.61500000000001</v>
       </c>
       <c r="D40">
-        <v>1827</v>
+        <v>1874.7270000000001</v>
       </c>
       <c r="E40">
-        <v>1126</v>
+        <v>869.64300000000003</v>
       </c>
       <c r="F40">
-        <v>645</v>
+        <v>795.75599999999997</v>
       </c>
       <c r="G40">
-        <v>2380</v>
+        <v>1631.3440000000001</v>
       </c>
       <c r="H40">
-        <v>12990</v>
+        <v>8481.7919999999995</v>
       </c>
       <c r="I40">
-        <v>1134</v>
+        <v>824.375</v>
       </c>
       <c r="J40">
-        <v>3991</v>
+        <v>2950.1419999999998</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>1843</v>
+        <v>995.50300000000004</v>
       </c>
       <c r="O40">
-        <v>7032</v>
+        <v>4534.9040000000005</v>
       </c>
       <c r="P40">
-        <v>5137</v>
+        <v>3144.9670000000001</v>
       </c>
       <c r="Q40">
-        <v>646</v>
+        <v>-15.351000000000001</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>5958</v>
+        <v>3946.8879999999999</v>
       </c>
       <c r="U40">
-        <v>988</v>
+        <v>447.88799999999998</v>
       </c>
       <c r="V40">
-        <v>355</v>
+        <v>209.16900000000001</v>
       </c>
       <c r="W40">
-        <v>-75</v>
+        <v>-18.058</v>
       </c>
       <c r="X40">
-        <v>496</v>
+        <v>-175.07</v>
       </c>
       <c r="Y40">
-        <v>445</v>
+        <v>23.696999999999999</v>
       </c>
       <c r="Z40">
-        <v>-3</v>
+        <v>-0.36499999999999999</v>
       </c>
       <c r="AA40">
-        <v>185</v>
+        <v>194.61500000000001</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>568</v>
+        <v>198.07499999999999</v>
       </c>
       <c r="D41">
-        <v>2786</v>
+        <v>1864.655</v>
       </c>
       <c r="E41">
-        <v>1421</v>
+        <v>884.09400000000005</v>
       </c>
       <c r="F41">
-        <v>1220</v>
+        <v>773.19</v>
       </c>
       <c r="G41">
-        <v>3348</v>
+        <v>1552.7139999999999</v>
       </c>
       <c r="H41">
-        <v>14143</v>
+        <v>8459.3379999999997</v>
       </c>
       <c r="I41">
-        <v>1676</v>
+        <v>816.80600000000004</v>
       </c>
       <c r="J41">
-        <v>3988</v>
+        <v>2798.2930000000001</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>2389</v>
+        <v>1148.3320000000001</v>
       </c>
       <c r="O41">
-        <v>7617</v>
+        <v>4578.6329999999998</v>
       </c>
       <c r="P41">
-        <v>5149</v>
+        <v>3167.4630000000002</v>
       </c>
       <c r="Q41">
-        <v>617</v>
+        <v>-78.626999999999995</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>6526</v>
+        <v>3880.7049999999999</v>
       </c>
       <c r="U41">
-        <v>1605</v>
+        <v>369.26100000000002</v>
       </c>
       <c r="V41">
-        <v>862</v>
+        <v>330.07400000000001</v>
       </c>
       <c r="W41">
-        <v>-76</v>
+        <v>-17.786999999999999</v>
       </c>
       <c r="X41">
-        <v>-52</v>
+        <v>-360.911</v>
       </c>
       <c r="Y41">
-        <v>458</v>
+        <v>37.643999999999998</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>-0.34699999999999998</v>
       </c>
       <c r="AA41">
-        <v>568</v>
+        <v>198.07499999999999</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>165.756</v>
+      </c>
+      <c r="D42">
+        <v>1824.04</v>
+      </c>
+      <c r="E42">
+        <v>845.29899999999998</v>
+      </c>
+      <c r="F42">
+        <v>745.50199999999995</v>
+      </c>
+      <c r="G42">
+        <v>1605.4169999999999</v>
+      </c>
+      <c r="H42">
+        <v>8527.6299999999992</v>
+      </c>
+      <c r="I42">
+        <v>212.494</v>
+      </c>
+      <c r="J42">
+        <v>2641.16</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1214.268</v>
+      </c>
+      <c r="O42">
+        <v>4473.5050000000001</v>
+      </c>
+      <c r="P42">
+        <v>2990.1559999999999</v>
+      </c>
+      <c r="Q42">
+        <v>80.040000000000006</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>42000</v>
+      </c>
+      <c r="T42">
+        <v>4054.125</v>
+      </c>
+      <c r="U42">
+        <v>449.30099999999999</v>
+      </c>
+      <c r="V42">
+        <v>339.589</v>
+      </c>
+      <c r="W42">
+        <v>-17.103999999999999</v>
+      </c>
+      <c r="X42">
+        <v>-182.87299999999999</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-7.5670000000000002</v>
+      </c>
+      <c r="AA42">
+        <v>165.756</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>-53.860999999999997</v>
+      </c>
+      <c r="D43">
+        <v>1821.577</v>
+      </c>
+      <c r="E43">
+        <v>940.35799999999995</v>
+      </c>
+      <c r="F43">
+        <v>733.57899999999995</v>
+      </c>
+      <c r="G43">
+        <v>2299.9850000000001</v>
+      </c>
+      <c r="H43">
+        <v>9224.7289999999994</v>
+      </c>
+      <c r="I43">
+        <v>1137.326</v>
+      </c>
+      <c r="J43">
+        <v>3556.22</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-576.89099999999996</v>
+      </c>
+      <c r="N43">
+        <v>1766.5640000000001</v>
+      </c>
+      <c r="O43">
+        <v>5986.7250000000004</v>
+      </c>
+      <c r="P43">
+        <v>4226.5320000000002</v>
+      </c>
+      <c r="Q43">
+        <v>544.94100000000003</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>3238.0039999999999</v>
+      </c>
+      <c r="U43">
+        <v>994.24199999999996</v>
+      </c>
+      <c r="V43">
+        <v>160.58000000000001</v>
+      </c>
+      <c r="W43">
+        <v>-17.135999999999999</v>
+      </c>
+      <c r="X43">
+        <v>425.11399999999998</v>
+      </c>
+      <c r="Y43">
+        <v>41.073999999999998</v>
+      </c>
+      <c r="Z43">
+        <v>-1.762</v>
+      </c>
+      <c r="AA43">
+        <v>-53.860999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>163.143</v>
+      </c>
+      <c r="D44">
+        <v>1903.201</v>
+      </c>
+      <c r="E44">
+        <v>929.37199999999996</v>
+      </c>
+      <c r="F44">
+        <v>798.80700000000002</v>
+      </c>
+      <c r="G44">
+        <v>1477.9549999999999</v>
+      </c>
+      <c r="H44">
+        <v>9431.1910000000007</v>
+      </c>
+      <c r="I44">
+        <v>839.68200000000002</v>
+      </c>
+      <c r="J44">
+        <v>3290.0529999999999</v>
+      </c>
+      <c r="K44">
+        <v>85</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1993.357</v>
+      </c>
+      <c r="O44">
+        <v>5980.5950000000003</v>
+      </c>
+      <c r="P44">
+        <v>4327.6059999999998</v>
+      </c>
+      <c r="Q44">
+        <v>-810.024</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>3450.596</v>
+      </c>
+      <c r="U44">
+        <v>184.21799999999999</v>
+      </c>
+      <c r="V44">
+        <v>59.503</v>
+      </c>
+      <c r="W44">
+        <v>-15.794</v>
+      </c>
+      <c r="X44">
+        <v>97.686000000000007</v>
+      </c>
+      <c r="Y44">
+        <v>42.878</v>
+      </c>
+      <c r="Z44">
+        <v>208.8</v>
+      </c>
+      <c r="AA44">
+        <v>163.143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>171.84800000000001</v>
+      </c>
+      <c r="D45">
+        <v>1906.405</v>
+      </c>
+      <c r="E45">
+        <v>936.25900000000001</v>
+      </c>
+      <c r="F45">
+        <v>805.73099999999999</v>
+      </c>
+      <c r="G45">
+        <v>1396.277</v>
+      </c>
+      <c r="H45">
+        <v>9326.4709999999995</v>
+      </c>
+      <c r="I45">
+        <v>927.16200000000003</v>
+      </c>
+      <c r="J45">
+        <v>3323.4059999999999</v>
+      </c>
+      <c r="K45">
+        <v>85</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1764.0719999999999</v>
+      </c>
+      <c r="O45">
+        <v>5781.5069999999996</v>
+      </c>
+      <c r="P45">
+        <v>4203.7569999999996</v>
+      </c>
+      <c r="Q45">
+        <v>-73.393000000000001</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>3544.9639999999999</v>
+      </c>
+      <c r="U45">
+        <v>110.825</v>
+      </c>
+      <c r="V45">
+        <v>337.64499999999998</v>
+      </c>
+      <c r="W45">
+        <v>-15.9</v>
+      </c>
+      <c r="X45">
+        <v>-216.946</v>
+      </c>
+      <c r="Y45">
+        <v>44.441000000000003</v>
+      </c>
+      <c r="Z45">
+        <v>7.3010000000000002</v>
+      </c>
+      <c r="AA45">
+        <v>171.84800000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>189.43700000000001</v>
+      </c>
+      <c r="D46">
+        <v>1760.749</v>
+      </c>
+      <c r="E46">
+        <v>906.45500000000004</v>
+      </c>
+      <c r="F46">
+        <v>712.88699999999994</v>
+      </c>
+      <c r="G46">
+        <v>1401.26</v>
+      </c>
+      <c r="H46">
+        <v>9313.3790000000008</v>
+      </c>
+      <c r="I46">
+        <v>215.34</v>
+      </c>
+      <c r="J46">
+        <v>3370.5219999999999</v>
+      </c>
+      <c r="K46">
+        <v>85</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1561.1590000000001</v>
+      </c>
+      <c r="O46">
+        <v>5598.38</v>
+      </c>
+      <c r="P46">
+        <v>4024.9169999999999</v>
+      </c>
+      <c r="Q46">
+        <v>54.061</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>42000</v>
+      </c>
+      <c r="T46">
+        <v>3714.9989999999998</v>
+      </c>
+      <c r="U46">
+        <v>164.886</v>
+      </c>
+      <c r="V46">
+        <v>337.74599999999998</v>
+      </c>
+      <c r="W46">
+        <v>-15.832000000000001</v>
+      </c>
+      <c r="X46">
+        <v>-242.30799999999999</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>2.4060000000000001</v>
+      </c>
+      <c r="AA46">
+        <v>189.43700000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>159.11799999999999</v>
+      </c>
+      <c r="D47">
+        <v>1908.6969999999999</v>
+      </c>
+      <c r="E47">
+        <v>973.88800000000003</v>
+      </c>
+      <c r="F47">
+        <v>799.53300000000002</v>
+      </c>
+      <c r="G47">
+        <v>1518.604</v>
+      </c>
+      <c r="H47">
+        <v>9451.4439999999995</v>
+      </c>
+      <c r="I47">
+        <v>971.09199999999998</v>
+      </c>
+      <c r="J47">
+        <v>3325.5650000000001</v>
+      </c>
+      <c r="K47">
+        <v>547.33699999999999</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-467.31200000000001</v>
+      </c>
+      <c r="N47">
+        <v>1525.4480000000001</v>
+      </c>
+      <c r="O47">
+        <v>5555.3869999999997</v>
+      </c>
+      <c r="P47">
+        <v>3919.6129999999998</v>
+      </c>
+      <c r="Q47">
+        <v>-19.446999999999999</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>3896.0569999999998</v>
+      </c>
+      <c r="U47">
+        <v>145.43899999999999</v>
+      </c>
+      <c r="V47">
+        <v>161.267</v>
+      </c>
+      <c r="W47">
+        <v>-26.9</v>
+      </c>
+      <c r="X47">
+        <v>-97.471000000000004</v>
+      </c>
+      <c r="Y47">
+        <v>39.692</v>
+      </c>
+      <c r="Z47">
+        <v>-2.6890000000000001</v>
+      </c>
+      <c r="AA47">
+        <v>159.11799999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>177.70500000000001</v>
+      </c>
+      <c r="D48">
+        <v>1878.3520000000001</v>
+      </c>
+      <c r="E48">
+        <v>941.46900000000005</v>
+      </c>
+      <c r="F48">
+        <v>776.428</v>
+      </c>
+      <c r="G48">
+        <v>1477.175</v>
+      </c>
+      <c r="H48">
+        <v>9392.8469999999998</v>
+      </c>
+      <c r="I48">
+        <v>880.221</v>
+      </c>
+      <c r="J48">
+        <v>3337.6089999999999</v>
+      </c>
+      <c r="K48">
+        <v>439.67099999999999</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1324.7180000000001</v>
+      </c>
+      <c r="O48">
+        <v>5371.7120000000004</v>
+      </c>
+      <c r="P48">
+        <v>3822.6869999999999</v>
+      </c>
+      <c r="Q48">
+        <v>28.303000000000001</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>4021.1350000000002</v>
+      </c>
+      <c r="U48">
+        <v>173.74199999999999</v>
+      </c>
+      <c r="V48">
+        <v>250.86699999999999</v>
+      </c>
+      <c r="W48">
+        <v>-27.081</v>
+      </c>
+      <c r="X48">
+        <v>-175.26599999999999</v>
+      </c>
+      <c r="Y48">
+        <v>40.581000000000003</v>
+      </c>
+      <c r="Z48">
+        <v>0.124</v>
+      </c>
+      <c r="AA48">
+        <v>177.70500000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>163.08199999999999</v>
+      </c>
+      <c r="D49">
+        <v>1821.748</v>
+      </c>
+      <c r="E49">
+        <v>930.73199999999997</v>
+      </c>
+      <c r="F49">
+        <v>760.83100000000002</v>
+      </c>
+      <c r="G49">
+        <v>1472.2650000000001</v>
+      </c>
+      <c r="H49">
+        <v>9318.7209999999995</v>
+      </c>
+      <c r="I49">
+        <v>915.99099999999999</v>
+      </c>
+      <c r="J49">
+        <v>3334.1660000000002</v>
+      </c>
+      <c r="K49">
+        <v>152.27099999999999</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1070.6400000000001</v>
+      </c>
+      <c r="O49">
+        <v>5121.1400000000003</v>
+      </c>
+      <c r="P49">
+        <v>3531.5239999999999</v>
+      </c>
+      <c r="Q49">
+        <v>18.027999999999999</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>4197.5810000000001</v>
+      </c>
+      <c r="U49">
+        <v>191.77</v>
+      </c>
+      <c r="V49">
+        <v>394.62099999999998</v>
+      </c>
+      <c r="W49">
+        <v>-27.053000000000001</v>
+      </c>
+      <c r="X49">
+        <v>-332.14400000000001</v>
+      </c>
+      <c r="Y49">
+        <v>42.709000000000003</v>
+      </c>
+      <c r="Z49">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="AA49">
+        <v>163.08199999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>867</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>1561</v>
+      </c>
+      <c r="H50">
+        <v>9284</v>
+      </c>
+      <c r="I50">
+        <v>204</v>
+      </c>
+      <c r="J50">
+        <v>3357</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1048</v>
+      </c>
+      <c r="O50">
+        <v>5098</v>
+      </c>
+      <c r="P50">
+        <v>3367</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>41000</v>
+      </c>
+      <c r="T50">
+        <v>4186</v>
+      </c>
+      <c r="U50">
+        <v>296</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>136</v>
+      </c>
+      <c r="D51">
+        <v>1787</v>
+      </c>
+      <c r="E51">
+        <v>929.96600000000001</v>
+      </c>
+      <c r="F51">
+        <v>708</v>
+      </c>
+      <c r="G51">
+        <v>1457.1659999999999</v>
+      </c>
+      <c r="H51">
+        <v>9306.1640000000007</v>
+      </c>
+      <c r="I51">
+        <v>935.01800000000003</v>
+      </c>
+      <c r="J51">
+        <v>3135.8069999999998</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-132</v>
+      </c>
+      <c r="N51">
+        <v>1208.2159999999999</v>
+      </c>
+      <c r="O51">
+        <v>5078.8109999999997</v>
+      </c>
+      <c r="P51">
+        <v>3408.8220000000001</v>
+      </c>
+      <c r="Q51">
+        <v>-162</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>4227.3530000000001</v>
+      </c>
+      <c r="U51">
+        <v>133.60300000000001</v>
+      </c>
+      <c r="V51">
+        <v>47</v>
+      </c>
+      <c r="W51">
+        <v>-48</v>
+      </c>
+      <c r="X51">
+        <v>-60</v>
+      </c>
+      <c r="Y51">
+        <v>18.594999999999999</v>
+      </c>
+      <c r="Z51">
+        <v>-1</v>
+      </c>
+      <c r="AA51">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>165</v>
+      </c>
+      <c r="D52">
+        <v>1815</v>
+      </c>
+      <c r="E52">
+        <v>946.75300000000004</v>
+      </c>
+      <c r="F52">
+        <v>725</v>
+      </c>
+      <c r="G52">
+        <v>1469.6990000000001</v>
+      </c>
+      <c r="H52">
+        <v>9036.1849999999995</v>
+      </c>
+      <c r="I52">
+        <v>915.92700000000002</v>
+      </c>
+      <c r="J52">
+        <v>3131.8409999999999</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1290.691</v>
+      </c>
+      <c r="O52">
+        <v>5097.6189999999997</v>
+      </c>
+      <c r="P52">
+        <v>3527.0590000000002</v>
+      </c>
+      <c r="Q52">
+        <v>14</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>3938.5659999999998</v>
+      </c>
+      <c r="U52">
+        <v>148.34200000000001</v>
+      </c>
+      <c r="V52">
+        <v>208</v>
+      </c>
+      <c r="W52">
+        <v>-47</v>
+      </c>
+      <c r="X52">
+        <v>-341</v>
+      </c>
+      <c r="Y52">
+        <v>20.454000000000001</v>
+      </c>
+      <c r="Z52">
+        <v>1</v>
+      </c>
+      <c r="AA52">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>405</v>
+      </c>
+      <c r="D53">
+        <v>1788</v>
+      </c>
+      <c r="E53">
+        <v>920.83299999999997</v>
+      </c>
+      <c r="F53">
+        <v>708</v>
+      </c>
+      <c r="G53">
+        <v>1425.6479999999999</v>
+      </c>
+      <c r="H53">
+        <v>8927.5390000000007</v>
+      </c>
+      <c r="I53">
+        <v>994.29200000000003</v>
+      </c>
+      <c r="J53">
+        <v>3128.7359999999999</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1238.9949999999999</v>
+      </c>
+      <c r="O53">
+        <v>5055.9440000000004</v>
+      </c>
+      <c r="P53">
+        <v>3393.893</v>
+      </c>
+      <c r="Q53">
+        <v>10</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>3871.5949999999998</v>
+      </c>
+      <c r="U53">
+        <v>158.28</v>
+      </c>
+      <c r="V53">
+        <v>187</v>
+      </c>
+      <c r="W53">
+        <v>-46</v>
+      </c>
+      <c r="X53">
+        <v>-629</v>
+      </c>
+      <c r="Y53">
+        <v>20.454000000000001</v>
+      </c>
+      <c r="Z53">
+        <v>-2</v>
+      </c>
+      <c r="AA53">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>143</v>
+      </c>
+      <c r="D54">
+        <v>1756</v>
+      </c>
+      <c r="E54">
+        <v>852</v>
+      </c>
+      <c r="F54">
+        <v>722</v>
+      </c>
+      <c r="G54">
+        <v>1383</v>
+      </c>
+      <c r="H54">
+        <v>8948</v>
+      </c>
+      <c r="I54">
+        <v>258</v>
+      </c>
+      <c r="J54">
+        <v>3154</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1132</v>
+      </c>
+      <c r="O54">
+        <v>4975</v>
+      </c>
+      <c r="P54">
+        <v>3366</v>
+      </c>
+      <c r="Q54">
+        <v>29</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>41000</v>
+      </c>
+      <c r="T54">
+        <v>3973</v>
+      </c>
+      <c r="U54">
+        <v>187</v>
+      </c>
+      <c r="V54">
+        <v>210</v>
+      </c>
+      <c r="W54">
+        <v>-44</v>
+      </c>
+      <c r="X54">
+        <v>-76</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>4</v>
+      </c>
+      <c r="AA54">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>104</v>
+      </c>
+      <c r="D55">
+        <v>1746</v>
+      </c>
+      <c r="E55">
+        <v>977</v>
+      </c>
+      <c r="F55">
+        <v>653</v>
+      </c>
+      <c r="G55">
+        <v>1488</v>
+      </c>
+      <c r="H55">
+        <v>9550</v>
+      </c>
+      <c r="I55">
+        <v>969</v>
+      </c>
+      <c r="J55">
+        <v>3722</v>
+      </c>
+      <c r="K55">
+        <v>180</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-923</v>
+      </c>
+      <c r="N55">
+        <v>1192</v>
+      </c>
+      <c r="O55">
+        <v>5530</v>
+      </c>
+      <c r="P55">
+        <v>3978</v>
+      </c>
+      <c r="Q55">
+        <v>-43</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>4020</v>
+      </c>
+      <c r="U55">
+        <v>144</v>
+      </c>
+      <c r="V55">
+        <v>84</v>
+      </c>
+      <c r="W55">
+        <v>-43</v>
+      </c>
+      <c r="X55">
+        <v>509</v>
+      </c>
+      <c r="Y55">
+        <v>33</v>
+      </c>
+      <c r="Z55">
+        <v>-1</v>
+      </c>
+      <c r="AA55">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>133</v>
+      </c>
+      <c r="D56">
+        <v>1902</v>
+      </c>
+      <c r="E56">
+        <v>963</v>
+      </c>
+      <c r="F56">
+        <v>739</v>
+      </c>
+      <c r="G56">
+        <v>1505</v>
+      </c>
+      <c r="H56">
+        <v>9757</v>
+      </c>
+      <c r="I56">
+        <v>1030</v>
+      </c>
+      <c r="J56">
+        <v>3729</v>
+      </c>
+      <c r="K56">
+        <v>187</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1258</v>
+      </c>
+      <c r="O56">
+        <v>5638</v>
+      </c>
+      <c r="P56">
+        <v>3984</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>4119</v>
+      </c>
+      <c r="U56">
+        <v>144</v>
+      </c>
+      <c r="V56">
+        <v>280</v>
+      </c>
+      <c r="W56">
+        <v>-48</v>
+      </c>
+      <c r="X56">
+        <v>-75</v>
+      </c>
+      <c r="Y56">
+        <v>35</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>129</v>
+      </c>
+      <c r="D57">
+        <v>1904</v>
+      </c>
+      <c r="E57">
+        <v>953</v>
+      </c>
+      <c r="F57">
+        <v>740</v>
+      </c>
+      <c r="G57">
+        <v>1563</v>
+      </c>
+      <c r="H57">
+        <v>9801</v>
+      </c>
+      <c r="I57">
+        <v>1052</v>
+      </c>
+      <c r="J57">
+        <v>3726</v>
+      </c>
+      <c r="K57">
+        <v>103</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1190</v>
+      </c>
+      <c r="O57">
+        <v>5591</v>
+      </c>
+      <c r="P57">
+        <v>3893</v>
+      </c>
+      <c r="Q57">
+        <v>26</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>4210</v>
+      </c>
+      <c r="U57">
+        <v>170</v>
+      </c>
+      <c r="V57">
+        <v>271</v>
+      </c>
+      <c r="W57">
+        <v>-48</v>
+      </c>
+      <c r="X57">
+        <v>-152</v>
+      </c>
+      <c r="Y57">
+        <v>35</v>
+      </c>
+      <c r="Z57">
+        <v>11</v>
+      </c>
+      <c r="AA57">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>932</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>1603</v>
+      </c>
+      <c r="H58">
+        <v>9857</v>
+      </c>
+      <c r="I58">
+        <v>257</v>
+      </c>
+      <c r="J58">
+        <v>3252</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1709</v>
+      </c>
+      <c r="O58">
+        <v>5527</v>
+      </c>
+      <c r="P58">
+        <v>3770</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>45000</v>
+      </c>
+      <c r="T58">
+        <v>4330</v>
+      </c>
+      <c r="U58">
+        <v>192</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>61</v>
+      </c>
+      <c r="D59">
+        <v>1839</v>
+      </c>
+      <c r="E59">
+        <v>949</v>
+      </c>
+      <c r="F59">
+        <v>696</v>
+      </c>
+      <c r="G59">
+        <v>2375</v>
+      </c>
+      <c r="H59">
+        <v>10613</v>
+      </c>
+      <c r="I59">
+        <v>1041</v>
+      </c>
+      <c r="J59">
+        <v>3675</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-440</v>
+      </c>
+      <c r="N59">
+        <v>2089</v>
+      </c>
+      <c r="O59">
+        <v>6342</v>
+      </c>
+      <c r="P59">
+        <v>4736</v>
+      </c>
+      <c r="Q59">
+        <v>782</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>4271</v>
+      </c>
+      <c r="U59">
+        <v>974</v>
+      </c>
+      <c r="V59">
+        <v>52</v>
+      </c>
+      <c r="W59">
+        <v>-48</v>
+      </c>
+      <c r="X59">
+        <v>785</v>
+      </c>
+      <c r="Y59">
+        <v>18</v>
+      </c>
+      <c r="Z59">
+        <v>1</v>
+      </c>
+      <c r="AA59">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>118</v>
+      </c>
+      <c r="D60">
+        <v>1925</v>
+      </c>
+      <c r="E60">
+        <v>937</v>
+      </c>
+      <c r="F60">
+        <v>754</v>
+      </c>
+      <c r="G60">
+        <v>1530</v>
+      </c>
+      <c r="H60">
+        <v>9720</v>
+      </c>
+      <c r="I60">
+        <v>1070</v>
+      </c>
+      <c r="J60">
+        <v>3558</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1242</v>
+      </c>
+      <c r="O60">
+        <v>5376</v>
+      </c>
+      <c r="P60">
+        <v>3748</v>
+      </c>
+      <c r="Q60">
+        <v>-824</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>4344</v>
+      </c>
+      <c r="U60">
+        <v>150</v>
+      </c>
+      <c r="V60">
+        <v>285</v>
+      </c>
+      <c r="W60">
+        <v>-55</v>
+      </c>
+      <c r="X60">
+        <v>-1041</v>
+      </c>
+      <c r="Y60">
+        <v>22</v>
+      </c>
+      <c r="Z60">
+        <v>-1</v>
+      </c>
+      <c r="AA60">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>342</v>
+      </c>
+      <c r="D61">
+        <v>1880</v>
+      </c>
+      <c r="E61">
+        <v>914</v>
+      </c>
+      <c r="F61">
+        <v>730</v>
+      </c>
+      <c r="G61">
+        <v>1648</v>
+      </c>
+      <c r="H61">
+        <v>10074</v>
+      </c>
+      <c r="I61">
+        <v>945</v>
+      </c>
+      <c r="J61">
+        <v>3549</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1133</v>
+      </c>
+      <c r="O61">
+        <v>5384</v>
+      </c>
+      <c r="P61">
+        <v>3731</v>
+      </c>
+      <c r="Q61">
+        <v>-27</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>4690</v>
+      </c>
+      <c r="U61">
+        <v>123</v>
+      </c>
+      <c r="V61">
+        <v>212</v>
+      </c>
+      <c r="W61">
+        <v>-55</v>
+      </c>
+      <c r="X61">
+        <v>-125</v>
+      </c>
+      <c r="Y61">
+        <v>22</v>
+      </c>
+      <c r="Z61">
+        <v>-27</v>
+      </c>
+      <c r="AA61">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>188</v>
+      </c>
+      <c r="D62">
+        <v>1849</v>
+      </c>
+      <c r="E62">
+        <v>901</v>
+      </c>
+      <c r="F62">
+        <v>735</v>
+      </c>
+      <c r="G62">
+        <v>1501</v>
+      </c>
+      <c r="H62">
+        <v>9962</v>
+      </c>
+      <c r="I62">
+        <v>279</v>
+      </c>
+      <c r="J62">
+        <v>3498</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1173</v>
+      </c>
+      <c r="O62">
+        <v>5179</v>
+      </c>
+      <c r="P62">
+        <v>3657</v>
+      </c>
+      <c r="Q62">
+        <v>10</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>44000</v>
+      </c>
+      <c r="T62">
+        <v>4783</v>
+      </c>
+      <c r="U62">
+        <v>133</v>
+      </c>
+      <c r="V62">
+        <v>272</v>
+      </c>
+      <c r="W62">
+        <v>-54</v>
+      </c>
+      <c r="X62">
+        <v>-137</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-5</v>
+      </c>
+      <c r="AA62">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>103</v>
+      </c>
+      <c r="D63">
+        <v>1863</v>
+      </c>
+      <c r="E63">
+        <v>952</v>
+      </c>
+      <c r="F63">
+        <v>726</v>
+      </c>
+      <c r="G63">
+        <v>1493</v>
+      </c>
+      <c r="H63">
+        <v>10097</v>
+      </c>
+      <c r="I63">
+        <v>921</v>
+      </c>
+      <c r="J63">
+        <v>3727</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-453</v>
+      </c>
+      <c r="N63">
+        <v>1090</v>
+      </c>
+      <c r="O63">
+        <v>5359</v>
+      </c>
+      <c r="P63">
+        <v>3898</v>
+      </c>
+      <c r="Q63">
+        <v>-5</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>4738</v>
+      </c>
+      <c r="U63">
+        <v>128</v>
+      </c>
+      <c r="V63">
+        <v>153</v>
+      </c>
+      <c r="W63">
+        <v>-55</v>
+      </c>
+      <c r="X63">
+        <v>32</v>
+      </c>
+      <c r="Y63">
+        <v>13</v>
+      </c>
+      <c r="Z63">
+        <v>-8</v>
+      </c>
+      <c r="AA63">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>195</v>
+      </c>
+      <c r="D64">
+        <v>1906</v>
+      </c>
+      <c r="E64">
+        <v>975</v>
+      </c>
+      <c r="F64">
+        <v>761</v>
+      </c>
+      <c r="G64">
+        <v>1510</v>
+      </c>
+      <c r="H64">
+        <v>10109</v>
+      </c>
+      <c r="I64">
+        <v>983</v>
+      </c>
+      <c r="J64">
+        <v>3822</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1111</v>
+      </c>
+      <c r="O64">
+        <v>5466</v>
+      </c>
+      <c r="P64">
+        <v>3842</v>
+      </c>
+      <c r="Q64">
+        <v>155</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>4643</v>
+      </c>
+      <c r="U64">
+        <v>283</v>
+      </c>
+      <c r="V64">
+        <v>311</v>
+      </c>
+      <c r="W64">
+        <v>-56</v>
+      </c>
+      <c r="X64">
+        <v>-373</v>
+      </c>
+      <c r="Y64">
+        <v>13</v>
+      </c>
+      <c r="Z64">
+        <v>-1</v>
+      </c>
+      <c r="AA64">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>192</v>
+      </c>
+      <c r="D65">
+        <v>1885</v>
+      </c>
+      <c r="E65">
+        <v>966</v>
+      </c>
+      <c r="F65">
+        <v>736</v>
+      </c>
+      <c r="G65">
+        <v>1642</v>
+      </c>
+      <c r="H65">
+        <v>10173</v>
+      </c>
+      <c r="I65">
+        <v>994</v>
+      </c>
+      <c r="J65">
+        <v>3807</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1046</v>
+      </c>
+      <c r="O65">
+        <v>5403</v>
+      </c>
+      <c r="P65">
+        <v>3827</v>
+      </c>
+      <c r="Q65">
+        <v>123</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>4770</v>
+      </c>
+      <c r="U65">
+        <v>406</v>
+      </c>
+      <c r="V65">
+        <v>301</v>
+      </c>
+      <c r="W65">
+        <v>-57</v>
+      </c>
+      <c r="X65">
+        <v>-106</v>
+      </c>
+      <c r="Y65">
+        <v>13</v>
+      </c>
+      <c r="Z65">
+        <v>-2</v>
+      </c>
+      <c r="AA65">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>155</v>
+      </c>
+      <c r="D66">
+        <v>1861</v>
+      </c>
+      <c r="E66">
+        <v>926</v>
+      </c>
+      <c r="F66">
+        <v>716</v>
+      </c>
+      <c r="G66">
+        <v>1531</v>
+      </c>
+      <c r="H66">
+        <v>10100</v>
+      </c>
+      <c r="I66">
+        <v>231</v>
+      </c>
+      <c r="J66">
+        <v>3816</v>
+      </c>
+      <c r="K66">
+        <v>30</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>981</v>
+      </c>
+      <c r="O66">
+        <v>5363</v>
+      </c>
+      <c r="P66">
+        <v>3852</v>
+      </c>
+      <c r="Q66">
+        <v>-47</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>43000</v>
+      </c>
+      <c r="T66">
+        <v>4737</v>
+      </c>
+      <c r="U66">
+        <v>359</v>
+      </c>
+      <c r="V66">
+        <v>304</v>
+      </c>
+      <c r="W66">
+        <v>-55</v>
+      </c>
+      <c r="X66">
+        <v>-244</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>21</v>
+      </c>
+      <c r="AA66">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>164</v>
+      </c>
+      <c r="D67">
+        <v>1817</v>
+      </c>
+      <c r="E67">
+        <v>960</v>
+      </c>
+      <c r="F67">
+        <v>662</v>
+      </c>
+      <c r="G67">
+        <v>1558</v>
+      </c>
+      <c r="H67">
+        <v>10109</v>
+      </c>
+      <c r="I67">
+        <v>954</v>
+      </c>
+      <c r="J67">
+        <v>3806</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-2</v>
+      </c>
+      <c r="N67">
+        <v>985</v>
+      </c>
+      <c r="O67">
+        <v>5368</v>
+      </c>
+      <c r="P67">
+        <v>3819</v>
+      </c>
+      <c r="Q67">
+        <v>-17</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>4741</v>
+      </c>
+      <c r="U67">
+        <v>367</v>
+      </c>
+      <c r="V67">
+        <v>196</v>
+      </c>
+      <c r="W67">
+        <v>-62</v>
+      </c>
+      <c r="X67">
+        <v>-166</v>
+      </c>
+      <c r="Y67">
+        <v>7</v>
+      </c>
+      <c r="Z67">
+        <v>-4</v>
+      </c>
+      <c r="AA67">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>193</v>
+      </c>
+      <c r="D68">
+        <v>1864</v>
+      </c>
+      <c r="E68">
+        <v>947</v>
+      </c>
+      <c r="F68">
+        <v>705</v>
+      </c>
+      <c r="G68">
+        <v>1500</v>
+      </c>
+      <c r="H68">
+        <v>10171</v>
+      </c>
+      <c r="I68">
+        <v>889</v>
+      </c>
+      <c r="J68">
+        <v>3809</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>917</v>
+      </c>
+      <c r="O68">
+        <v>5358</v>
+      </c>
+      <c r="P68">
+        <v>3814</v>
+      </c>
+      <c r="Q68">
+        <v>-53</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>4813</v>
+      </c>
+      <c r="U68">
+        <v>314</v>
+      </c>
+      <c r="V68">
+        <v>294</v>
+      </c>
+      <c r="W68">
+        <v>-62</v>
+      </c>
+      <c r="X68">
+        <v>-177</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>6</v>
+      </c>
+      <c r="AA68">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>161</v>
+      </c>
+      <c r="D69">
+        <v>1856</v>
+      </c>
+      <c r="E69">
+        <v>960</v>
+      </c>
+      <c r="F69">
+        <v>681</v>
+      </c>
+      <c r="G69">
+        <v>1544</v>
+      </c>
+      <c r="H69">
+        <v>10439</v>
+      </c>
+      <c r="I69">
+        <v>1023</v>
+      </c>
+      <c r="J69">
+        <v>3835</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1052</v>
+      </c>
+      <c r="O69">
+        <v>5533</v>
+      </c>
+      <c r="P69">
+        <v>3840</v>
+      </c>
+      <c r="Q69">
+        <v>36</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>4906</v>
+      </c>
+      <c r="U69">
+        <v>350</v>
+      </c>
+      <c r="V69">
+        <v>362</v>
+      </c>
+      <c r="W69">
+        <v>-62</v>
+      </c>
+      <c r="X69">
+        <v>-79</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>3</v>
+      </c>
+      <c r="AA69">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>254</v>
+      </c>
+      <c r="D70">
+        <v>1865</v>
+      </c>
+      <c r="E70">
+        <v>924</v>
+      </c>
+      <c r="F70">
+        <v>687</v>
+      </c>
+      <c r="G70">
+        <v>1306</v>
+      </c>
+      <c r="H70">
+        <v>10503</v>
+      </c>
+      <c r="I70">
+        <v>224</v>
+      </c>
+      <c r="J70">
+        <v>3837</v>
+      </c>
+      <c r="K70">
+        <v>71</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1057</v>
+      </c>
+      <c r="O70">
+        <v>5468</v>
+      </c>
+      <c r="P70">
+        <v>3944</v>
+      </c>
+      <c r="Q70">
+        <v>-213</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>45000</v>
+      </c>
+      <c r="T70">
+        <v>5035</v>
+      </c>
+      <c r="U70">
+        <v>137</v>
+      </c>
+      <c r="V70">
+        <v>323</v>
+      </c>
+      <c r="W70">
+        <v>-61</v>
+      </c>
+      <c r="X70">
+        <v>-170</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-3</v>
+      </c>
+      <c r="AA70">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>177</v>
+      </c>
+      <c r="D71">
+        <v>1884</v>
+      </c>
+      <c r="E71">
+        <v>1026</v>
+      </c>
+      <c r="F71">
+        <v>670</v>
+      </c>
+      <c r="G71">
+        <v>1371</v>
+      </c>
+      <c r="H71">
+        <v>10695</v>
+      </c>
+      <c r="I71">
+        <v>948</v>
+      </c>
+      <c r="J71">
+        <v>3795</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-832</v>
+      </c>
+      <c r="N71">
+        <v>1117</v>
+      </c>
+      <c r="O71">
+        <v>5552</v>
+      </c>
+      <c r="P71">
+        <v>3973</v>
+      </c>
+      <c r="Q71">
+        <v>-13</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>5143</v>
+      </c>
+      <c r="U71">
+        <v>124</v>
+      </c>
+      <c r="V71">
+        <v>180</v>
+      </c>
+      <c r="W71">
+        <v>-61</v>
+      </c>
+      <c r="X71">
+        <v>11</v>
+      </c>
+      <c r="Y71">
+        <v>37</v>
+      </c>
+      <c r="Z71">
+        <v>-1</v>
+      </c>
+      <c r="AA71">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>219</v>
+      </c>
+      <c r="D72">
+        <v>1919</v>
+      </c>
+      <c r="E72">
+        <v>1055</v>
+      </c>
+      <c r="F72">
+        <v>693</v>
+      </c>
+      <c r="G72">
+        <v>1415</v>
+      </c>
+      <c r="H72">
+        <v>10747</v>
+      </c>
+      <c r="I72">
+        <v>934</v>
+      </c>
+      <c r="J72">
+        <v>3493</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1262</v>
+      </c>
+      <c r="O72">
+        <v>5408</v>
+      </c>
+      <c r="P72">
+        <v>3834</v>
+      </c>
+      <c r="Q72">
+        <v>8</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>5339</v>
+      </c>
+      <c r="U72">
+        <v>132</v>
+      </c>
+      <c r="V72">
+        <v>323</v>
+      </c>
+      <c r="W72">
+        <v>-68</v>
+      </c>
+      <c r="X72">
+        <v>-189</v>
+      </c>
+      <c r="Y72">
+        <v>36</v>
+      </c>
+      <c r="Z72">
+        <v>-13</v>
+      </c>
+      <c r="AA72">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>213</v>
+      </c>
+      <c r="D73">
+        <v>1889</v>
+      </c>
+      <c r="E73">
+        <v>1097</v>
+      </c>
+      <c r="F73">
+        <v>678</v>
+      </c>
+      <c r="G73">
+        <v>1603</v>
+      </c>
+      <c r="H73">
+        <v>10986</v>
+      </c>
+      <c r="I73">
+        <v>1067</v>
+      </c>
+      <c r="J73">
+        <v>3489</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1389</v>
+      </c>
+      <c r="O73">
+        <v>5544</v>
+      </c>
+      <c r="P73">
+        <v>3829</v>
+      </c>
+      <c r="Q73">
+        <v>131</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>5442</v>
+      </c>
+      <c r="U73">
+        <v>263</v>
+      </c>
+      <c r="V73">
+        <v>402</v>
+      </c>
+      <c r="W73">
+        <v>-69</v>
+      </c>
+      <c r="X73">
+        <v>-146</v>
+      </c>
+      <c r="Y73">
+        <v>36</v>
+      </c>
+      <c r="Z73">
+        <v>10</v>
+      </c>
+      <c r="AA73">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>127</v>
+      </c>
+      <c r="D74">
+        <v>1839</v>
+      </c>
+      <c r="E74">
+        <v>1012</v>
+      </c>
+      <c r="F74">
+        <v>624</v>
+      </c>
+      <c r="G74">
+        <v>1390</v>
+      </c>
+      <c r="H74">
+        <v>11003</v>
+      </c>
+      <c r="I74">
+        <v>222</v>
+      </c>
+      <c r="J74">
+        <v>3522</v>
+      </c>
+      <c r="K74">
+        <v>98</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1485</v>
+      </c>
+      <c r="O74">
+        <v>5659</v>
+      </c>
+      <c r="P74">
+        <v>4084</v>
+      </c>
+      <c r="Q74">
+        <v>-128</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>46000</v>
+      </c>
+      <c r="T74">
+        <v>5344</v>
+      </c>
+      <c r="U74">
+        <v>135</v>
+      </c>
+      <c r="V74">
+        <v>295</v>
+      </c>
+      <c r="W74">
+        <v>-68</v>
+      </c>
+      <c r="X74">
+        <v>-77</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>3</v>
+      </c>
+      <c r="AA74">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>164</v>
+      </c>
+      <c r="D75">
+        <v>1891</v>
+      </c>
+      <c r="E75">
+        <v>1079</v>
+      </c>
+      <c r="F75">
+        <v>658</v>
+      </c>
+      <c r="G75">
+        <v>1778</v>
+      </c>
+      <c r="H75">
+        <v>11937</v>
+      </c>
+      <c r="I75">
+        <v>1002</v>
+      </c>
+      <c r="J75">
+        <v>3176</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-802</v>
+      </c>
+      <c r="N75">
+        <v>2282</v>
+      </c>
+      <c r="O75">
+        <v>6519</v>
+      </c>
+      <c r="P75">
+        <v>4854</v>
+      </c>
+      <c r="Q75">
+        <v>329</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>5418</v>
+      </c>
+      <c r="U75">
+        <v>464</v>
+      </c>
+      <c r="V75">
+        <v>275</v>
+      </c>
+      <c r="W75">
+        <v>-72</v>
+      </c>
+      <c r="X75">
+        <v>164</v>
+      </c>
+      <c r="Y75">
+        <v>425</v>
+      </c>
+      <c r="Z75">
+        <v>-7</v>
+      </c>
+      <c r="AA75">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>226</v>
+      </c>
+      <c r="D76">
+        <v>1953</v>
+      </c>
+      <c r="E76">
+        <v>1088</v>
+      </c>
+      <c r="F76">
+        <v>699</v>
+      </c>
+      <c r="G76">
+        <v>1566</v>
+      </c>
+      <c r="H76">
+        <v>11760</v>
+      </c>
+      <c r="I76">
+        <v>933</v>
+      </c>
+      <c r="J76">
+        <v>3175</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1904</v>
+      </c>
+      <c r="O76">
+        <v>6175</v>
+      </c>
+      <c r="P76">
+        <v>4572</v>
+      </c>
+      <c r="Q76">
+        <v>-191</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>5585</v>
+      </c>
+      <c r="U76">
+        <v>273</v>
+      </c>
+      <c r="V76">
+        <v>321</v>
+      </c>
+      <c r="W76">
+        <v>-71</v>
+      </c>
+      <c r="X76">
+        <v>-420</v>
+      </c>
+      <c r="Y76">
+        <v>444</v>
+      </c>
+      <c r="Z76">
+        <v>-7</v>
+      </c>
+      <c r="AA76">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>215</v>
+      </c>
+      <c r="D77">
+        <v>1956</v>
+      </c>
+      <c r="E77">
+        <v>1117</v>
+      </c>
+      <c r="F77">
+        <v>699</v>
+      </c>
+      <c r="G77">
+        <v>1779</v>
+      </c>
+      <c r="H77">
+        <v>12019</v>
+      </c>
+      <c r="I77">
+        <v>1047</v>
+      </c>
+      <c r="J77">
+        <v>3174</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>2011</v>
+      </c>
+      <c r="O77">
+        <v>6289</v>
+      </c>
+      <c r="P77">
+        <v>4562</v>
+      </c>
+      <c r="Q77">
+        <v>161</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>5730</v>
+      </c>
+      <c r="U77">
+        <v>434</v>
+      </c>
+      <c r="V77">
+        <v>299</v>
+      </c>
+      <c r="W77">
+        <v>-72</v>
+      </c>
+      <c r="X77">
+        <v>-29</v>
+      </c>
+      <c r="Y77">
+        <v>436</v>
+      </c>
+      <c r="Z77">
+        <v>-13</v>
+      </c>
+      <c r="AA77">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>253</v>
+      </c>
+      <c r="D78">
+        <v>1926</v>
+      </c>
+      <c r="E78">
+        <v>1063</v>
+      </c>
+      <c r="F78">
+        <v>668</v>
+      </c>
+      <c r="G78">
+        <v>2490</v>
+      </c>
+      <c r="H78">
+        <v>12843</v>
+      </c>
+      <c r="I78">
+        <v>263</v>
+      </c>
+      <c r="J78">
+        <v>3964</v>
+      </c>
+      <c r="K78">
+        <v>88</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>1990</v>
+      </c>
+      <c r="O78">
+        <v>7080</v>
+      </c>
+      <c r="P78">
+        <v>5444</v>
+      </c>
+      <c r="Q78">
+        <v>758</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>47000</v>
+      </c>
+      <c r="T78">
+        <v>5763</v>
+      </c>
+      <c r="U78">
+        <v>1192</v>
+      </c>
+      <c r="V78">
+        <v>348</v>
+      </c>
+      <c r="W78">
+        <v>-71</v>
+      </c>
+      <c r="X78">
+        <v>510</v>
+      </c>
+      <c r="Y78">
+        <v>443</v>
+      </c>
+      <c r="Z78">
+        <v>-17</v>
+      </c>
+      <c r="AA78">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>99</v>
+      </c>
+      <c r="D79">
+        <v>1822</v>
+      </c>
+      <c r="E79">
+        <v>972</v>
+      </c>
+      <c r="F79">
+        <v>560</v>
+      </c>
+      <c r="G79">
+        <v>1560</v>
+      </c>
+      <c r="H79">
+        <v>12049</v>
+      </c>
+      <c r="I79">
+        <v>975</v>
+      </c>
+      <c r="J79">
+        <v>4003</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-801</v>
+      </c>
+      <c r="N79">
+        <v>1129</v>
+      </c>
+      <c r="O79">
+        <v>6270</v>
+      </c>
+      <c r="P79">
+        <v>4590</v>
+      </c>
+      <c r="Q79">
+        <v>-850</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>5779</v>
+      </c>
+      <c r="U79">
+        <v>342</v>
+      </c>
+      <c r="V79">
+        <v>247</v>
+      </c>
+      <c r="W79">
+        <v>-71</v>
+      </c>
+      <c r="X79">
+        <v>-891</v>
+      </c>
+      <c r="Y79">
+        <v>439</v>
+      </c>
+      <c r="Z79">
+        <v>-15</v>
+      </c>
+      <c r="AA79">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>185</v>
+      </c>
+      <c r="D80">
+        <v>1827</v>
+      </c>
+      <c r="E80">
+        <v>1126</v>
+      </c>
+      <c r="F80">
+        <v>645</v>
+      </c>
+      <c r="G80">
+        <v>2380</v>
+      </c>
+      <c r="H80">
+        <v>12990</v>
+      </c>
+      <c r="I80">
+        <v>1134</v>
+      </c>
+      <c r="J80">
+        <v>3991</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>1843</v>
+      </c>
+      <c r="O80">
+        <v>7032</v>
+      </c>
+      <c r="P80">
+        <v>5137</v>
+      </c>
+      <c r="Q80">
+        <v>646</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>5958</v>
+      </c>
+      <c r="U80">
+        <v>988</v>
+      </c>
+      <c r="V80">
+        <v>355</v>
+      </c>
+      <c r="W80">
+        <v>-75</v>
+      </c>
+      <c r="X80">
+        <v>496</v>
+      </c>
+      <c r="Y80">
+        <v>445</v>
+      </c>
+      <c r="Z80">
+        <v>-3</v>
+      </c>
+      <c r="AA80">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>568</v>
+      </c>
+      <c r="D81">
+        <v>2786</v>
+      </c>
+      <c r="E81">
+        <v>1421</v>
+      </c>
+      <c r="F81">
+        <v>1220</v>
+      </c>
+      <c r="G81">
+        <v>3348</v>
+      </c>
+      <c r="H81">
+        <v>14143</v>
+      </c>
+      <c r="I81">
+        <v>1676</v>
+      </c>
+      <c r="J81">
+        <v>3988</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>2389</v>
+      </c>
+      <c r="O81">
+        <v>7617</v>
+      </c>
+      <c r="P81">
+        <v>5149</v>
+      </c>
+      <c r="Q81">
+        <v>617</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>6526</v>
+      </c>
+      <c r="U81">
+        <v>1605</v>
+      </c>
+      <c r="V81">
+        <v>862</v>
+      </c>
+      <c r="W81">
+        <v>-76</v>
+      </c>
+      <c r="X81">
+        <v>-52</v>
+      </c>
+      <c r="Y81">
+        <v>458</v>
+      </c>
+      <c r="Z81">
+        <v>-1</v>
+      </c>
+      <c r="AA81">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>579</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>3002</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>1520</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>1294</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>3058</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>14026</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>446</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>3988</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>153</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>1776</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>7135</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>4808</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-447</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>40000</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>6891</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>1158</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>541</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-75</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-820</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>524</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-8</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>579</v>
       </c>
     </row>
